--- a/dictionaries/urban_ath/1_3/1_3_yearly_rep.xlsx
+++ b/dictionaries/urban_ath/1_3/1_3_yearly_rep.xlsx
@@ -1,46 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\ATHLETE\DOCUMENTS\dictionaries\jose_dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{10B6F0B9-62B0-4755-AEEA-8977DF2CF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CFA7999-5CB0-44C3-97E5-1C7B075E521F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA1DFD-9D2B-4E74-AF1B-1F0D72003E73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$D$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$D$127</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="360">
   <si>
     <t>name</t>
   </si>
@@ -988,13 +977,145 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>ath_fefoodenv300_</t>
+  </si>
+  <si>
+    <t>ath_fealcohol300_</t>
+  </si>
+  <si>
+    <t>ath_febar300_</t>
+  </si>
+  <si>
+    <t>ath_febeverages300_</t>
+  </si>
+  <si>
+    <t>ath_febiergarten300_</t>
+  </si>
+  <si>
+    <t>ath_fecafe300_</t>
+  </si>
+  <si>
+    <t>ath_feconvenience300_</t>
+  </si>
+  <si>
+    <t>ath_fefastfood300_</t>
+  </si>
+  <si>
+    <t>ath_fepub300_</t>
+  </si>
+  <si>
+    <t>ath_ferestaurant300_</t>
+  </si>
+  <si>
+    <t>ath_fesupermarket300_</t>
+  </si>
+  <si>
+    <t>ath_fefoodenv800_</t>
+  </si>
+  <si>
+    <t>ath_fealcohol800_</t>
+  </si>
+  <si>
+    <t>ath_febar800_</t>
+  </si>
+  <si>
+    <t>ath_febeverages800_</t>
+  </si>
+  <si>
+    <t>ath_febiergarten800_</t>
+  </si>
+  <si>
+    <t>ath_fecafe800_</t>
+  </si>
+  <si>
+    <t>ath_feconvenience800_</t>
+  </si>
+  <si>
+    <t>ath_fefastfood800_</t>
+  </si>
+  <si>
+    <t>ath_fepub800_</t>
+  </si>
+  <si>
+    <t>ath_ferestaurant800_</t>
+  </si>
+  <si>
+    <t>ath_fesupermarket800_</t>
+  </si>
+  <si>
+    <t>number of facilities related to food divided by the area of the 300 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to alcohol establishments divided by the area of the 300 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to bar establishments divided by the area of the 300 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to beverages establishments divided by the area of the 300 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to biergarten establishments divided by the area of the 300 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to cafe establishments divided by the area of the 300 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to convenience establishments divided by the area of the 300 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to fast food establishments divided by the area of the 300 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to pub establishments divided by the area of the 300 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to restaurant establishments divided by the area of the 300 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to supermarket establishments divided by the area of the 300 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to food divided by the area of the 800 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to alcohol establishments divided by the area of the 800 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to bar establishments divided by the area of the 800 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to beverages establishments divided by the area of the 800 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to biergarten establishments divided by the area of the 800 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to cafe establishments divided by the area of the 800 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to convenience establishments divided by the area of the 800 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to fast food establishments divided by the area of the 800 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to pub establishments divided by the area of the 800 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to restaurant establishments divided by the area of the 800 meters buffer at # year</t>
+  </si>
+  <si>
+    <t>number of facilities related to supermarket establishments divided by the area of the 800 meters buffer at # year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1484,11 +1605,11 @@
     <cellStyle name="Heading 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Input" xfId="34" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Linked Cell" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="40" xr:uid="{DA12D86D-CE70-461E-A40E-C02AA928D247}"/>
     <cellStyle name="Normal 3" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
     <cellStyle name="Note 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Output" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="38" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Warning Text" xfId="39" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
@@ -1574,7 +1695,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1870,20 +1991,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMH1772"/>
+  <dimension ref="A1:AMH1795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="26" style="1" customWidth="1"/>
     <col min="4" max="4" width="72.5703125" style="1" customWidth="1"/>
     <col min="5" max="1022" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1022" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:1022" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +2016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1022">
+    <row r="2" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +3048,7 @@
       <c r="AMG2"/>
       <c r="AMH2"/>
     </row>
-    <row r="3" spans="1:1022" ht="13.5" customHeight="1">
+    <row r="3" spans="1:1022" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2941,7 +3060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1022" ht="13.5" customHeight="1">
+    <row r="4" spans="1:1022" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2955,7 +3074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1022" ht="14.25" customHeight="1">
+    <row r="5" spans="1:1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3985,7 +4104,7 @@
       <c r="AMG5"/>
       <c r="AMH5"/>
     </row>
-    <row r="6" spans="1:1022" ht="14.25" customHeight="1">
+    <row r="6" spans="1:1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5015,7 +5134,7 @@
       <c r="AMG6"/>
       <c r="AMH6"/>
     </row>
-    <row r="7" spans="1:1022" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:1022" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -6043,7 +6162,7 @@
       <c r="AMG7" s="9"/>
       <c r="AMH7" s="9"/>
     </row>
-    <row r="8" spans="1:1022">
+    <row r="8" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6058,7 +6177,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:1022">
+    <row r="9" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -6073,7 +6192,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:1022">
+    <row r="10" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -6088,7 +6207,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:1022">
+    <row r="11" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -6103,7 +6222,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:1022">
+    <row r="12" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -6118,7 +6237,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:1022">
+    <row r="13" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -6133,7 +6252,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:1022">
+    <row r="14" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -6148,7 +6267,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:1022">
+    <row r="15" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -6163,7 +6282,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:1022">
+    <row r="16" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -6178,7 +6297,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -6193,7 +6312,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6208,7 +6327,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -6223,7 +6342,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -6238,7 +6357,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -6253,7 +6372,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -6268,7 +6387,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -6283,7 +6402,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -6298,7 +6417,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -6313,7 +6432,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -6328,7 +6447,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -6343,7 +6462,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -6358,7 +6477,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -6373,7 +6492,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -6388,7 +6507,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -6403,7 +6522,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -6418,7 +6537,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:1022">
+    <row r="33" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -6433,7 +6552,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:1022">
+    <row r="34" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -6448,7 +6567,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:1022">
+    <row r="35" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -6463,7 +6582,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:1022" s="13" customFormat="1">
+    <row r="36" spans="1:1022" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>81</v>
       </c>
@@ -7491,7 +7610,7 @@
       <c r="AMG36" s="14"/>
       <c r="AMH36" s="14"/>
     </row>
-    <row r="37" spans="1:1022" s="13" customFormat="1">
+    <row r="37" spans="1:1022" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>83</v>
       </c>
@@ -8519,7 +8638,7 @@
       <c r="AMG37" s="14"/>
       <c r="AMH37" s="14"/>
     </row>
-    <row r="38" spans="1:1022">
+    <row r="38" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -8534,7 +8653,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:1022">
+    <row r="39" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -8549,7 +8668,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:1022">
+    <row r="40" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -8564,7 +8683,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:1022">
+    <row r="41" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -8579,7 +8698,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:1022">
+    <row r="42" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -8594,7 +8713,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:1022">
+    <row r="43" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -8609,7 +8728,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:1022">
+    <row r="44" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -8624,7 +8743,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:1022">
+    <row r="45" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -8639,7 +8758,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:1022">
+    <row r="46" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -8654,7 +8773,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:1022">
+    <row r="47" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -8669,7 +8788,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:1022">
+    <row r="48" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -8684,7 +8803,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>111</v>
       </c>
@@ -8699,7 +8818,7 @@
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -8714,7 +8833,7 @@
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -8729,7 +8848,7 @@
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -8744,7 +8863,7 @@
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -8759,7 +8878,7 @@
       </c>
       <c r="E53"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -8774,7 +8893,7 @@
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -8789,7 +8908,7 @@
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -8804,7 +8923,7 @@
       </c>
       <c r="E56"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -8819,7 +8938,7 @@
       </c>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -8834,7 +8953,7 @@
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -8847,7 +8966,7 @@
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -8860,7 +8979,7 @@
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -8873,7 +8992,7 @@
       </c>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -8888,7 +9007,7 @@
       </c>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>141</v>
       </c>
@@ -8903,7 +9022,7 @@
       </c>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -8918,7 +9037,7 @@
       </c>
       <c r="E64"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>145</v>
       </c>
@@ -8933,7 +9052,7 @@
       </c>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>147</v>
       </c>
@@ -8948,7 +9067,7 @@
       </c>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -8963,7 +9082,7 @@
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -8978,7 +9097,7 @@
       </c>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -8993,7 +9112,7 @@
       </c>
       <c r="E69"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -9007,7 +9126,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>157</v>
       </c>
@@ -9021,7 +9140,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>159</v>
       </c>
@@ -9035,7 +9154,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -9049,7 +9168,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>163</v>
       </c>
@@ -9061,7 +9180,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -9073,7 +9192,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>167</v>
       </c>
@@ -9087,7 +9206,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>170</v>
       </c>
@@ -9101,7 +9220,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -9115,7 +9234,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>175</v>
       </c>
@@ -9129,7 +9248,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -9143,7 +9262,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>181</v>
       </c>
@@ -9157,7 +9276,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>183</v>
       </c>
@@ -9169,7 +9288,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>185</v>
       </c>
@@ -9181,7 +9300,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -9195,7 +9314,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>189</v>
       </c>
@@ -9209,5517 +9328,5839 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>191</v>
-      </c>
-      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>192</v>
+      <c r="C86" t="s">
+        <v>114</v>
       </c>
       <c r="D86" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>192</v>
+      <c r="C87" t="s">
+        <v>114</v>
       </c>
       <c r="D87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>192</v>
+      <c r="C88" t="s">
+        <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D89" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D91" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>192</v>
+      <c r="C92" t="s">
+        <v>114</v>
       </c>
       <c r="D92" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>192</v>
+      <c r="C93" t="s">
+        <v>114</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>208</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>192</v>
+      <c r="C94" t="s">
+        <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D95" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>213</v>
+      <c r="C96" t="s">
+        <v>114</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>215</v>
+        <v>326</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="D97" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>222</v>
+      <c r="C99" t="s">
+        <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>222</v>
+      <c r="C100" t="s">
+        <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>222</v>
+      <c r="C101" t="s">
+        <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>228</v>
+        <v>331</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>192</v>
+      <c r="C102" t="s">
+        <v>114</v>
       </c>
       <c r="D102" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>230</v>
+        <v>332</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>334</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>336</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>337</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>191</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D110" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D112" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>99</v>
+      </c>
+      <c r="D114" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D116" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>210</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>99</v>
+      </c>
+      <c r="D118" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D119" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" t="s">
+        <v>216</v>
+      </c>
+      <c r="D120" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>218</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" t="s">
+        <v>219</v>
+      </c>
+      <c r="D121" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>221</v>
+      </c>
+      <c r="B122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D123" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>228</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D125" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D126" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>232</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D127" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105" s="5"/>
-      <c r="D105"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127"/>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-    </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
-      <c r="C128"/>
+      <c r="C128" s="5"/>
       <c r="D128"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
       <c r="D135"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
       <c r="D148"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
       <c r="D149"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
       <c r="D150"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
       <c r="D151"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
       <c r="D152"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
       <c r="D153"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
       <c r="D154"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
       <c r="D155"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
       <c r="D159"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
       <c r="D160"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
       <c r="D161"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
       <c r="D163"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
       <c r="D171"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184"/>
+      <c r="B184"/>
+      <c r="C184"/>
       <c r="D184"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="C185"/>
       <c r="D185"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186"/>
+      <c r="B186"/>
+      <c r="C186"/>
       <c r="D186"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187"/>
+      <c r="B187"/>
+      <c r="C187"/>
       <c r="D187"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188"/>
+      <c r="B188"/>
+      <c r="C188"/>
       <c r="D188"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189"/>
+      <c r="B189"/>
+      <c r="C189"/>
       <c r="D189"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190"/>
+      <c r="B190"/>
+      <c r="C190"/>
       <c r="D190"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191"/>
+      <c r="B191"/>
+      <c r="C191"/>
       <c r="D191"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192"/>
+      <c r="B192"/>
+      <c r="C192"/>
       <c r="D192"/>
     </row>
-    <row r="193" spans="4:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193"/>
+      <c r="B193"/>
+      <c r="C193"/>
       <c r="D193"/>
     </row>
-    <row r="194" spans="4:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194"/>
+      <c r="B194"/>
+      <c r="C194"/>
       <c r="D194"/>
     </row>
-    <row r="195" spans="4:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195"/>
+      <c r="B195"/>
+      <c r="C195"/>
       <c r="D195"/>
     </row>
-    <row r="196" spans="4:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196"/>
+      <c r="B196"/>
+      <c r="C196"/>
       <c r="D196"/>
     </row>
-    <row r="197" spans="4:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197"/>
+      <c r="B197"/>
+      <c r="C197"/>
       <c r="D197"/>
     </row>
-    <row r="198" spans="4:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198"/>
+      <c r="B198"/>
+      <c r="C198"/>
       <c r="D198"/>
     </row>
-    <row r="199" spans="4:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199"/>
+      <c r="B199"/>
+      <c r="C199"/>
       <c r="D199"/>
     </row>
-    <row r="200" spans="4:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200"/>
+      <c r="B200"/>
+      <c r="C200"/>
       <c r="D200"/>
     </row>
-    <row r="201" spans="4:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201"/>
+      <c r="B201"/>
+      <c r="C201"/>
       <c r="D201"/>
     </row>
-    <row r="202" spans="4:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202"/>
+      <c r="B202"/>
+      <c r="C202"/>
       <c r="D202"/>
     </row>
-    <row r="203" spans="4:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203"/>
+      <c r="B203"/>
+      <c r="C203"/>
       <c r="D203"/>
     </row>
-    <row r="204" spans="4:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204"/>
+      <c r="B204"/>
+      <c r="C204"/>
       <c r="D204"/>
     </row>
-    <row r="205" spans="4:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205"/>
+      <c r="B205"/>
+      <c r="C205"/>
       <c r="D205"/>
     </row>
-    <row r="206" spans="4:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206"/>
+      <c r="B206"/>
+      <c r="C206"/>
       <c r="D206"/>
     </row>
-    <row r="207" spans="4:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D207"/>
     </row>
-    <row r="208" spans="4:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D208"/>
     </row>
-    <row r="209" spans="4:4">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D209"/>
     </row>
-    <row r="210" spans="4:4">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D210"/>
     </row>
-    <row r="211" spans="4:4">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D211"/>
     </row>
-    <row r="212" spans="4:4">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D212"/>
     </row>
-    <row r="213" spans="4:4">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D213"/>
     </row>
-    <row r="214" spans="4:4">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D214"/>
     </row>
-    <row r="215" spans="4:4">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D215"/>
     </row>
-    <row r="216" spans="4:4">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D216"/>
     </row>
-    <row r="217" spans="4:4">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D217"/>
     </row>
-    <row r="218" spans="4:4">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D218"/>
     </row>
-    <row r="219" spans="4:4">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D219"/>
     </row>
-    <row r="220" spans="4:4">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D220"/>
     </row>
-    <row r="221" spans="4:4">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D221"/>
     </row>
-    <row r="222" spans="4:4">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D222"/>
     </row>
-    <row r="223" spans="4:4">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D223"/>
     </row>
-    <row r="224" spans="4:4">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D224"/>
     </row>
-    <row r="225" spans="4:4">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D225"/>
     </row>
-    <row r="226" spans="4:4">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D226"/>
     </row>
-    <row r="227" spans="4:4">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D227"/>
     </row>
-    <row r="228" spans="4:4">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D228"/>
     </row>
-    <row r="229" spans="4:4">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D229"/>
     </row>
-    <row r="230" spans="4:4">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D230"/>
     </row>
-    <row r="231" spans="4:4">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D231"/>
     </row>
-    <row r="232" spans="4:4">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D232"/>
     </row>
-    <row r="233" spans="4:4">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D233"/>
     </row>
-    <row r="234" spans="4:4">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D234"/>
     </row>
-    <row r="235" spans="4:4">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D235"/>
     </row>
-    <row r="236" spans="4:4">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D236"/>
     </row>
-    <row r="237" spans="4:4">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D237"/>
     </row>
-    <row r="238" spans="4:4">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D238"/>
     </row>
-    <row r="239" spans="4:4">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D239"/>
     </row>
-    <row r="240" spans="4:4">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D240"/>
     </row>
-    <row r="241" spans="4:4">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D241"/>
     </row>
-    <row r="242" spans="4:4">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D242"/>
     </row>
-    <row r="243" spans="4:4">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D243"/>
     </row>
-    <row r="244" spans="4:4">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D244"/>
     </row>
-    <row r="245" spans="4:4">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D245"/>
     </row>
-    <row r="246" spans="4:4">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D246"/>
     </row>
-    <row r="247" spans="4:4">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D247"/>
     </row>
-    <row r="248" spans="4:4">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D248"/>
     </row>
-    <row r="249" spans="4:4">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D249"/>
     </row>
-    <row r="250" spans="4:4">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D250"/>
     </row>
-    <row r="251" spans="4:4">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D251"/>
     </row>
-    <row r="252" spans="4:4">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D252"/>
     </row>
-    <row r="253" spans="4:4">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D253"/>
     </row>
-    <row r="254" spans="4:4">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D254"/>
     </row>
-    <row r="255" spans="4:4">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D255"/>
     </row>
-    <row r="256" spans="4:4">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D256"/>
     </row>
-    <row r="257" spans="4:4">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D257"/>
     </row>
-    <row r="258" spans="4:4">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D258"/>
     </row>
-    <row r="259" spans="4:4">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D259"/>
     </row>
-    <row r="260" spans="4:4">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D260"/>
     </row>
-    <row r="261" spans="4:4">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D261"/>
     </row>
-    <row r="262" spans="4:4">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D262"/>
     </row>
-    <row r="263" spans="4:4">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D263"/>
     </row>
-    <row r="264" spans="4:4">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D264"/>
     </row>
-    <row r="265" spans="4:4">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D265"/>
     </row>
-    <row r="266" spans="4:4">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D266"/>
     </row>
-    <row r="267" spans="4:4">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D267"/>
     </row>
-    <row r="268" spans="4:4">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D268"/>
     </row>
-    <row r="269" spans="4:4">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D269"/>
     </row>
-    <row r="270" spans="4:4">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D270"/>
     </row>
-    <row r="271" spans="4:4">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D271"/>
     </row>
-    <row r="272" spans="4:4">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D272"/>
     </row>
-    <row r="273" spans="4:4">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D273"/>
     </row>
-    <row r="274" spans="4:4">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D274"/>
     </row>
-    <row r="275" spans="4:4">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D275"/>
     </row>
-    <row r="276" spans="4:4">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D276"/>
     </row>
-    <row r="277" spans="4:4">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D277"/>
     </row>
-    <row r="278" spans="4:4">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D278"/>
     </row>
-    <row r="279" spans="4:4">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D279"/>
     </row>
-    <row r="280" spans="4:4">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D280"/>
     </row>
-    <row r="281" spans="4:4">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D281"/>
     </row>
-    <row r="282" spans="4:4">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D282"/>
     </row>
-    <row r="283" spans="4:4">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D283"/>
     </row>
-    <row r="284" spans="4:4">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D284"/>
     </row>
-    <row r="285" spans="4:4">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D285"/>
     </row>
-    <row r="286" spans="4:4">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D286"/>
     </row>
-    <row r="287" spans="4:4">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D287"/>
     </row>
-    <row r="288" spans="4:4">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D288"/>
     </row>
-    <row r="289" spans="4:4">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D289"/>
     </row>
-    <row r="290" spans="4:4">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D290"/>
     </row>
-    <row r="291" spans="4:4">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D291"/>
     </row>
-    <row r="292" spans="4:4">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D292"/>
     </row>
-    <row r="293" spans="4:4">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D293"/>
     </row>
-    <row r="294" spans="4:4">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D294"/>
     </row>
-    <row r="295" spans="4:4">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D295"/>
     </row>
-    <row r="296" spans="4:4">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D296"/>
     </row>
-    <row r="297" spans="4:4">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D297"/>
     </row>
-    <row r="298" spans="4:4">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D298"/>
     </row>
-    <row r="299" spans="4:4">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D299"/>
     </row>
-    <row r="300" spans="4:4">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D300"/>
     </row>
-    <row r="301" spans="4:4">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D301"/>
     </row>
-    <row r="302" spans="4:4">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D302"/>
     </row>
-    <row r="303" spans="4:4">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D303"/>
     </row>
-    <row r="304" spans="4:4">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D304"/>
     </row>
-    <row r="305" spans="4:4">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D305"/>
     </row>
-    <row r="306" spans="4:4">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D306"/>
     </row>
-    <row r="307" spans="4:4">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D307"/>
     </row>
-    <row r="308" spans="4:4">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D308"/>
     </row>
-    <row r="309" spans="4:4">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D309"/>
     </row>
-    <row r="310" spans="4:4">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D310"/>
     </row>
-    <row r="311" spans="4:4">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D311"/>
     </row>
-    <row r="312" spans="4:4">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D312"/>
     </row>
-    <row r="313" spans="4:4">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D313"/>
     </row>
-    <row r="314" spans="4:4">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D314"/>
     </row>
-    <row r="315" spans="4:4">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D315"/>
     </row>
-    <row r="316" spans="4:4">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D316"/>
     </row>
-    <row r="317" spans="4:4">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D317"/>
     </row>
-    <row r="318" spans="4:4">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D318"/>
     </row>
-    <row r="319" spans="4:4">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D319"/>
     </row>
-    <row r="320" spans="4:4">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D320"/>
     </row>
-    <row r="321" spans="4:4">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D321"/>
     </row>
-    <row r="322" spans="4:4">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D322"/>
     </row>
-    <row r="323" spans="4:4">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D323"/>
     </row>
-    <row r="324" spans="4:4">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D324"/>
     </row>
-    <row r="325" spans="4:4">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D325"/>
     </row>
-    <row r="326" spans="4:4">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D326"/>
     </row>
-    <row r="327" spans="4:4">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D327"/>
     </row>
-    <row r="328" spans="4:4">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D328"/>
     </row>
-    <row r="329" spans="4:4">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D329"/>
     </row>
-    <row r="330" spans="4:4">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D330"/>
     </row>
-    <row r="331" spans="4:4">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D331"/>
     </row>
-    <row r="332" spans="4:4">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D332"/>
     </row>
-    <row r="333" spans="4:4">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D333"/>
     </row>
-    <row r="334" spans="4:4">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D334"/>
     </row>
-    <row r="335" spans="4:4">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D335"/>
     </row>
-    <row r="336" spans="4:4">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D336"/>
     </row>
-    <row r="337" spans="4:4">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D337"/>
     </row>
-    <row r="338" spans="4:4">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D338"/>
     </row>
-    <row r="339" spans="4:4">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D339"/>
     </row>
-    <row r="340" spans="4:4">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D340"/>
     </row>
-    <row r="341" spans="4:4">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D341"/>
     </row>
-    <row r="342" spans="4:4">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D342"/>
     </row>
-    <row r="343" spans="4:4">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D343"/>
     </row>
-    <row r="344" spans="4:4">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D344"/>
     </row>
-    <row r="345" spans="4:4">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D345"/>
     </row>
-    <row r="346" spans="4:4">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D346"/>
     </row>
-    <row r="347" spans="4:4">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D347"/>
     </row>
-    <row r="348" spans="4:4">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D348"/>
     </row>
-    <row r="349" spans="4:4">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D349"/>
     </row>
-    <row r="350" spans="4:4">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D350"/>
     </row>
-    <row r="351" spans="4:4">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D351"/>
     </row>
-    <row r="352" spans="4:4">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D352"/>
     </row>
-    <row r="353" spans="4:4">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D353"/>
     </row>
-    <row r="354" spans="4:4">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D354"/>
     </row>
-    <row r="355" spans="4:4">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D355"/>
     </row>
-    <row r="356" spans="4:4">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D356"/>
     </row>
-    <row r="357" spans="4:4">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D357"/>
     </row>
-    <row r="358" spans="4:4">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D358"/>
     </row>
-    <row r="359" spans="4:4">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D359"/>
     </row>
-    <row r="360" spans="4:4">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D360"/>
     </row>
-    <row r="361" spans="4:4">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D361"/>
     </row>
-    <row r="362" spans="4:4">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D362"/>
     </row>
-    <row r="363" spans="4:4">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D363"/>
     </row>
-    <row r="364" spans="4:4">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D364"/>
     </row>
-    <row r="365" spans="4:4">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D365"/>
     </row>
-    <row r="366" spans="4:4">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D366"/>
     </row>
-    <row r="367" spans="4:4">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D367"/>
     </row>
-    <row r="368" spans="4:4">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D368"/>
     </row>
-    <row r="369" spans="4:4">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D369"/>
     </row>
-    <row r="370" spans="4:4">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D370"/>
     </row>
-    <row r="371" spans="4:4">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D371"/>
     </row>
-    <row r="372" spans="4:4">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D372"/>
     </row>
-    <row r="373" spans="4:4">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D373"/>
     </row>
-    <row r="374" spans="4:4">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D374"/>
     </row>
-    <row r="375" spans="4:4">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D375"/>
     </row>
-    <row r="376" spans="4:4">
+    <row r="376" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D376"/>
     </row>
-    <row r="377" spans="4:4">
+    <row r="377" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D377"/>
     </row>
-    <row r="378" spans="4:4">
+    <row r="378" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D378"/>
     </row>
-    <row r="379" spans="4:4">
+    <row r="379" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D379"/>
     </row>
-    <row r="380" spans="4:4">
+    <row r="380" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D380"/>
     </row>
-    <row r="381" spans="4:4">
+    <row r="381" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D381"/>
     </row>
-    <row r="382" spans="4:4">
+    <row r="382" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D382"/>
     </row>
-    <row r="383" spans="4:4">
+    <row r="383" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D383"/>
     </row>
-    <row r="384" spans="4:4">
+    <row r="384" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D384"/>
     </row>
-    <row r="385" spans="4:4">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D385"/>
     </row>
-    <row r="386" spans="4:4">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D386"/>
     </row>
-    <row r="387" spans="4:4">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D387"/>
     </row>
-    <row r="388" spans="4:4">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D388"/>
     </row>
-    <row r="389" spans="4:4">
+    <row r="389" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D389"/>
     </row>
-    <row r="390" spans="4:4">
+    <row r="390" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D390"/>
     </row>
-    <row r="391" spans="4:4">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D391"/>
     </row>
-    <row r="392" spans="4:4">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D392"/>
     </row>
-    <row r="393" spans="4:4">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D393"/>
     </row>
-    <row r="394" spans="4:4">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D394"/>
     </row>
-    <row r="395" spans="4:4">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D395"/>
     </row>
-    <row r="396" spans="4:4">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D396"/>
     </row>
-    <row r="397" spans="4:4">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D397"/>
     </row>
-    <row r="398" spans="4:4">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D398"/>
     </row>
-    <row r="399" spans="4:4">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D399"/>
     </row>
-    <row r="400" spans="4:4">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D400"/>
     </row>
-    <row r="401" spans="4:4">
+    <row r="401" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D401"/>
     </row>
-    <row r="402" spans="4:4">
+    <row r="402" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D402"/>
     </row>
-    <row r="403" spans="4:4">
+    <row r="403" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D403"/>
     </row>
-    <row r="404" spans="4:4">
+    <row r="404" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D404"/>
     </row>
-    <row r="405" spans="4:4">
+    <row r="405" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D405"/>
     </row>
-    <row r="406" spans="4:4">
+    <row r="406" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D406"/>
     </row>
-    <row r="407" spans="4:4">
+    <row r="407" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D407"/>
     </row>
-    <row r="408" spans="4:4">
+    <row r="408" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D408"/>
     </row>
-    <row r="409" spans="4:4">
+    <row r="409" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D409"/>
     </row>
-    <row r="410" spans="4:4">
+    <row r="410" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D410"/>
     </row>
-    <row r="411" spans="4:4">
+    <row r="411" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D411"/>
     </row>
-    <row r="412" spans="4:4">
+    <row r="412" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D412"/>
     </row>
-    <row r="413" spans="4:4">
+    <row r="413" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D413"/>
     </row>
-    <row r="414" spans="4:4">
+    <row r="414" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D414"/>
     </row>
-    <row r="415" spans="4:4">
+    <row r="415" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D415"/>
     </row>
-    <row r="416" spans="4:4">
+    <row r="416" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D416"/>
     </row>
-    <row r="417" spans="4:4">
+    <row r="417" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D417"/>
     </row>
-    <row r="418" spans="4:4">
+    <row r="418" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D418"/>
     </row>
-    <row r="419" spans="4:4">
+    <row r="419" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D419"/>
     </row>
-    <row r="420" spans="4:4">
+    <row r="420" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D420"/>
     </row>
-    <row r="421" spans="4:4">
+    <row r="421" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D421"/>
     </row>
-    <row r="422" spans="4:4">
+    <row r="422" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D422"/>
     </row>
-    <row r="423" spans="4:4">
+    <row r="423" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D423"/>
     </row>
-    <row r="424" spans="4:4">
+    <row r="424" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D424"/>
     </row>
-    <row r="425" spans="4:4">
+    <row r="425" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D425"/>
     </row>
-    <row r="426" spans="4:4">
+    <row r="426" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D426"/>
     </row>
-    <row r="427" spans="4:4">
+    <row r="427" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D427"/>
     </row>
-    <row r="428" spans="4:4">
+    <row r="428" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D428"/>
     </row>
-    <row r="429" spans="4:4">
+    <row r="429" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D429"/>
     </row>
-    <row r="430" spans="4:4">
+    <row r="430" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D430"/>
     </row>
-    <row r="431" spans="4:4">
+    <row r="431" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D431"/>
     </row>
-    <row r="432" spans="4:4">
+    <row r="432" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D432"/>
     </row>
-    <row r="433" spans="4:4">
+    <row r="433" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D433"/>
     </row>
-    <row r="434" spans="4:4">
+    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D434"/>
     </row>
-    <row r="435" spans="4:4">
+    <row r="435" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D435"/>
     </row>
-    <row r="436" spans="4:4">
+    <row r="436" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D436"/>
     </row>
-    <row r="437" spans="4:4">
+    <row r="437" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D437"/>
     </row>
-    <row r="438" spans="4:4">
+    <row r="438" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D438"/>
     </row>
-    <row r="439" spans="4:4">
+    <row r="439" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D439"/>
     </row>
-    <row r="440" spans="4:4">
+    <row r="440" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D440"/>
     </row>
-    <row r="441" spans="4:4">
+    <row r="441" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D441"/>
     </row>
-    <row r="442" spans="4:4">
+    <row r="442" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D442"/>
     </row>
-    <row r="443" spans="4:4">
+    <row r="443" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D443"/>
     </row>
-    <row r="444" spans="4:4">
+    <row r="444" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D444"/>
     </row>
-    <row r="445" spans="4:4">
+    <row r="445" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D445"/>
     </row>
-    <row r="446" spans="4:4">
+    <row r="446" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D446"/>
     </row>
-    <row r="447" spans="4:4">
+    <row r="447" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D447"/>
     </row>
-    <row r="448" spans="4:4">
+    <row r="448" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D448"/>
     </row>
-    <row r="449" spans="4:4">
+    <row r="449" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D449"/>
     </row>
-    <row r="450" spans="4:4">
+    <row r="450" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D450"/>
     </row>
-    <row r="451" spans="4:4">
+    <row r="451" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D451"/>
     </row>
-    <row r="452" spans="4:4">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D452"/>
     </row>
-    <row r="453" spans="4:4">
+    <row r="453" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D453"/>
     </row>
-    <row r="454" spans="4:4">
+    <row r="454" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D454"/>
     </row>
-    <row r="455" spans="4:4">
+    <row r="455" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D455"/>
     </row>
-    <row r="456" spans="4:4">
+    <row r="456" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D456"/>
     </row>
-    <row r="457" spans="4:4">
+    <row r="457" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D457"/>
     </row>
-    <row r="458" spans="4:4">
+    <row r="458" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D458"/>
     </row>
-    <row r="459" spans="4:4">
+    <row r="459" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D459"/>
     </row>
-    <row r="460" spans="4:4">
+    <row r="460" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D460"/>
     </row>
-    <row r="461" spans="4:4">
+    <row r="461" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D461"/>
     </row>
-    <row r="462" spans="4:4">
+    <row r="462" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D462"/>
     </row>
-    <row r="463" spans="4:4">
+    <row r="463" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D463"/>
     </row>
-    <row r="464" spans="4:4">
+    <row r="464" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D464"/>
     </row>
-    <row r="465" spans="4:4">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D465"/>
     </row>
-    <row r="466" spans="4:4">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D466"/>
     </row>
-    <row r="467" spans="4:4">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D467"/>
     </row>
-    <row r="468" spans="4:4">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D468"/>
     </row>
-    <row r="469" spans="4:4">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D469"/>
     </row>
-    <row r="470" spans="4:4">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D470"/>
     </row>
-    <row r="471" spans="4:4">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D471"/>
     </row>
-    <row r="472" spans="4:4">
+    <row r="472" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D472"/>
     </row>
-    <row r="473" spans="4:4">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D473"/>
     </row>
-    <row r="474" spans="4:4">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D474"/>
     </row>
-    <row r="475" spans="4:4">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D475"/>
     </row>
-    <row r="476" spans="4:4">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D476"/>
     </row>
-    <row r="477" spans="4:4">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D477"/>
     </row>
-    <row r="478" spans="4:4">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D478"/>
     </row>
-    <row r="479" spans="4:4">
+    <row r="479" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D479"/>
     </row>
-    <row r="480" spans="4:4">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D480"/>
     </row>
-    <row r="481" spans="4:4">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D481"/>
     </row>
-    <row r="482" spans="4:4">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D482"/>
     </row>
-    <row r="483" spans="4:4">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D483"/>
     </row>
-    <row r="484" spans="4:4">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D484"/>
     </row>
-    <row r="485" spans="4:4">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D485"/>
     </row>
-    <row r="486" spans="4:4">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D486"/>
     </row>
-    <row r="487" spans="4:4">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D487"/>
     </row>
-    <row r="488" spans="4:4">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D488"/>
     </row>
-    <row r="489" spans="4:4">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D489"/>
     </row>
-    <row r="490" spans="4:4">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D490"/>
     </row>
-    <row r="491" spans="4:4">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D491"/>
     </row>
-    <row r="492" spans="4:4">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D492"/>
     </row>
-    <row r="493" spans="4:4">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D493"/>
     </row>
-    <row r="494" spans="4:4">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D494"/>
     </row>
-    <row r="495" spans="4:4">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D495"/>
     </row>
-    <row r="496" spans="4:4">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D496"/>
     </row>
-    <row r="497" spans="4:4">
+    <row r="497" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D497"/>
     </row>
-    <row r="498" spans="4:4">
+    <row r="498" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D498"/>
     </row>
-    <row r="499" spans="4:4">
+    <row r="499" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D499"/>
     </row>
-    <row r="500" spans="4:4">
+    <row r="500" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D500"/>
     </row>
-    <row r="501" spans="4:4">
+    <row r="501" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D501"/>
     </row>
-    <row r="502" spans="4:4">
+    <row r="502" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D502"/>
     </row>
-    <row r="503" spans="4:4">
+    <row r="503" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D503"/>
     </row>
-    <row r="504" spans="4:4">
+    <row r="504" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D504"/>
     </row>
-    <row r="505" spans="4:4">
+    <row r="505" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D505"/>
     </row>
-    <row r="506" spans="4:4">
+    <row r="506" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D506"/>
     </row>
-    <row r="507" spans="4:4">
+    <row r="507" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D507"/>
     </row>
-    <row r="508" spans="4:4">
+    <row r="508" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D508"/>
     </row>
-    <row r="509" spans="4:4">
+    <row r="509" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D509"/>
     </row>
-    <row r="510" spans="4:4">
+    <row r="510" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D510"/>
     </row>
-    <row r="511" spans="4:4">
+    <row r="511" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D511"/>
     </row>
-    <row r="512" spans="4:4">
+    <row r="512" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D512"/>
     </row>
-    <row r="513" spans="4:4">
+    <row r="513" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D513"/>
     </row>
-    <row r="514" spans="4:4">
+    <row r="514" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D514"/>
     </row>
-    <row r="515" spans="4:4">
+    <row r="515" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D515"/>
     </row>
-    <row r="516" spans="4:4">
+    <row r="516" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D516"/>
     </row>
-    <row r="517" spans="4:4">
+    <row r="517" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D517"/>
     </row>
-    <row r="518" spans="4:4">
+    <row r="518" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D518"/>
     </row>
-    <row r="519" spans="4:4">
+    <row r="519" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D519"/>
     </row>
-    <row r="520" spans="4:4">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D520"/>
     </row>
-    <row r="521" spans="4:4">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D521"/>
     </row>
-    <row r="522" spans="4:4">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D522"/>
     </row>
-    <row r="523" spans="4:4">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D523"/>
     </row>
-    <row r="524" spans="4:4">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D524"/>
     </row>
-    <row r="525" spans="4:4">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D525"/>
     </row>
-    <row r="526" spans="4:4">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D526"/>
     </row>
-    <row r="527" spans="4:4">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D527"/>
     </row>
-    <row r="528" spans="4:4">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D528"/>
     </row>
-    <row r="529" spans="4:4">
+    <row r="529" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D529"/>
     </row>
-    <row r="530" spans="4:4">
+    <row r="530" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D530"/>
     </row>
-    <row r="531" spans="4:4">
+    <row r="531" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D531"/>
     </row>
-    <row r="532" spans="4:4">
+    <row r="532" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D532"/>
     </row>
-    <row r="533" spans="4:4">
+    <row r="533" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D533"/>
     </row>
-    <row r="534" spans="4:4">
+    <row r="534" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D534"/>
     </row>
-    <row r="535" spans="4:4">
+    <row r="535" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D535"/>
     </row>
-    <row r="536" spans="4:4">
+    <row r="536" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D536"/>
     </row>
-    <row r="537" spans="4:4">
+    <row r="537" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D537"/>
     </row>
-    <row r="538" spans="4:4">
+    <row r="538" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D538"/>
     </row>
-    <row r="539" spans="4:4">
+    <row r="539" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D539"/>
     </row>
-    <row r="540" spans="4:4">
+    <row r="540" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D540"/>
     </row>
-    <row r="541" spans="4:4">
+    <row r="541" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D541"/>
     </row>
-    <row r="542" spans="4:4">
+    <row r="542" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D542"/>
     </row>
-    <row r="543" spans="4:4">
+    <row r="543" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D543"/>
     </row>
-    <row r="544" spans="4:4">
+    <row r="544" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D544"/>
     </row>
-    <row r="545" spans="4:4">
+    <row r="545" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D545"/>
     </row>
-    <row r="546" spans="4:4">
+    <row r="546" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D546"/>
     </row>
-    <row r="547" spans="4:4">
+    <row r="547" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D547"/>
     </row>
-    <row r="548" spans="4:4">
+    <row r="548" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D548"/>
     </row>
-    <row r="549" spans="4:4">
+    <row r="549" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D549"/>
     </row>
-    <row r="550" spans="4:4">
+    <row r="550" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D550"/>
     </row>
-    <row r="551" spans="4:4">
+    <row r="551" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D551"/>
     </row>
-    <row r="552" spans="4:4">
+    <row r="552" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D552"/>
     </row>
-    <row r="553" spans="4:4">
+    <row r="553" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D553"/>
     </row>
-    <row r="554" spans="4:4">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D554"/>
     </row>
-    <row r="555" spans="4:4">
+    <row r="555" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D555"/>
     </row>
-    <row r="556" spans="4:4">
+    <row r="556" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D556"/>
     </row>
-    <row r="557" spans="4:4">
+    <row r="557" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D557"/>
     </row>
-    <row r="558" spans="4:4">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D558"/>
     </row>
-    <row r="559" spans="4:4">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D559"/>
     </row>
-    <row r="560" spans="4:4">
+    <row r="560" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D560"/>
     </row>
-    <row r="561" spans="4:4">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D561"/>
     </row>
-    <row r="562" spans="4:4">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D562"/>
     </row>
-    <row r="563" spans="4:4">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D563"/>
     </row>
-    <row r="564" spans="4:4">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D564"/>
     </row>
-    <row r="565" spans="4:4">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D565"/>
     </row>
-    <row r="566" spans="4:4">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D566"/>
     </row>
-    <row r="567" spans="4:4">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D567"/>
     </row>
-    <row r="568" spans="4:4">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D568"/>
     </row>
-    <row r="569" spans="4:4">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D569"/>
     </row>
-    <row r="570" spans="4:4">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D570"/>
     </row>
-    <row r="571" spans="4:4">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D571"/>
     </row>
-    <row r="572" spans="4:4">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D572"/>
     </row>
-    <row r="573" spans="4:4">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D573"/>
     </row>
-    <row r="574" spans="4:4">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D574"/>
     </row>
-    <row r="575" spans="4:4">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D575"/>
     </row>
-    <row r="576" spans="4:4">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D576"/>
     </row>
-    <row r="577" spans="4:4">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D577"/>
     </row>
-    <row r="578" spans="4:4">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D578"/>
     </row>
-    <row r="579" spans="4:4">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D579"/>
     </row>
-    <row r="580" spans="4:4">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D580"/>
     </row>
-    <row r="581" spans="4:4">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D581"/>
     </row>
-    <row r="582" spans="4:4">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D582"/>
     </row>
-    <row r="583" spans="4:4">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D583"/>
     </row>
-    <row r="584" spans="4:4">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D584"/>
     </row>
-    <row r="585" spans="4:4">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D585"/>
     </row>
-    <row r="586" spans="4:4">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D586"/>
     </row>
-    <row r="587" spans="4:4">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D587"/>
     </row>
-    <row r="588" spans="4:4">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D588"/>
     </row>
-    <row r="589" spans="4:4">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D589"/>
     </row>
-    <row r="590" spans="4:4">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D590"/>
     </row>
-    <row r="591" spans="4:4">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D591"/>
     </row>
-    <row r="592" spans="4:4">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D592"/>
     </row>
-    <row r="593" spans="4:4">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D593"/>
     </row>
-    <row r="594" spans="4:4">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D594"/>
     </row>
-    <row r="595" spans="4:4">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D595"/>
     </row>
-    <row r="596" spans="4:4">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D596"/>
     </row>
-    <row r="597" spans="4:4">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D597"/>
     </row>
-    <row r="598" spans="4:4">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D598"/>
     </row>
-    <row r="599" spans="4:4">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D599"/>
     </row>
-    <row r="600" spans="4:4">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D600"/>
     </row>
-    <row r="601" spans="4:4">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D601"/>
     </row>
-    <row r="602" spans="4:4">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D602"/>
     </row>
-    <row r="603" spans="4:4">
+    <row r="603" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D603"/>
     </row>
-    <row r="604" spans="4:4">
+    <row r="604" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D604"/>
     </row>
-    <row r="605" spans="4:4">
+    <row r="605" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D605"/>
     </row>
-    <row r="606" spans="4:4">
+    <row r="606" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D606"/>
     </row>
-    <row r="607" spans="4:4">
+    <row r="607" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D607"/>
     </row>
-    <row r="608" spans="4:4">
+    <row r="608" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D608"/>
     </row>
-    <row r="609" spans="4:4">
+    <row r="609" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D609"/>
     </row>
-    <row r="610" spans="4:4">
+    <row r="610" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D610"/>
     </row>
-    <row r="611" spans="4:4">
+    <row r="611" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D611"/>
     </row>
-    <row r="612" spans="4:4">
+    <row r="612" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D612"/>
     </row>
-    <row r="613" spans="4:4">
+    <row r="613" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D613"/>
     </row>
-    <row r="614" spans="4:4">
+    <row r="614" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D614"/>
     </row>
-    <row r="615" spans="4:4">
+    <row r="615" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D615"/>
     </row>
-    <row r="616" spans="4:4">
+    <row r="616" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D616"/>
     </row>
-    <row r="617" spans="4:4">
+    <row r="617" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D617"/>
     </row>
-    <row r="618" spans="4:4">
+    <row r="618" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D618"/>
     </row>
-    <row r="619" spans="4:4">
+    <row r="619" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D619"/>
     </row>
-    <row r="620" spans="4:4">
+    <row r="620" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D620"/>
     </row>
-    <row r="621" spans="4:4">
+    <row r="621" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D621"/>
     </row>
-    <row r="622" spans="4:4">
+    <row r="622" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D622"/>
     </row>
-    <row r="623" spans="4:4">
+    <row r="623" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D623"/>
     </row>
-    <row r="624" spans="4:4">
+    <row r="624" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D624"/>
     </row>
-    <row r="625" spans="4:4">
+    <row r="625" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D625"/>
     </row>
-    <row r="626" spans="4:4">
+    <row r="626" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D626"/>
     </row>
-    <row r="627" spans="4:4">
+    <row r="627" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D627"/>
     </row>
-    <row r="628" spans="4:4">
+    <row r="628" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D628"/>
     </row>
-    <row r="629" spans="4:4">
+    <row r="629" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D629"/>
     </row>
-    <row r="630" spans="4:4">
+    <row r="630" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D630"/>
     </row>
-    <row r="631" spans="4:4">
+    <row r="631" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D631"/>
     </row>
-    <row r="632" spans="4:4">
+    <row r="632" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D632"/>
     </row>
-    <row r="633" spans="4:4">
+    <row r="633" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D633"/>
     </row>
-    <row r="634" spans="4:4">
+    <row r="634" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D634"/>
     </row>
-    <row r="635" spans="4:4">
+    <row r="635" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D635"/>
     </row>
-    <row r="636" spans="4:4">
+    <row r="636" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D636"/>
     </row>
-    <row r="637" spans="4:4">
+    <row r="637" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D637"/>
     </row>
-    <row r="638" spans="4:4">
+    <row r="638" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D638"/>
     </row>
-    <row r="639" spans="4:4">
+    <row r="639" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D639"/>
     </row>
-    <row r="640" spans="4:4">
+    <row r="640" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D640"/>
     </row>
-    <row r="641" spans="4:4">
+    <row r="641" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D641"/>
     </row>
-    <row r="642" spans="4:4">
+    <row r="642" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D642"/>
     </row>
-    <row r="643" spans="4:4">
+    <row r="643" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D643"/>
     </row>
-    <row r="644" spans="4:4">
+    <row r="644" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D644"/>
     </row>
-    <row r="645" spans="4:4">
+    <row r="645" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D645"/>
     </row>
-    <row r="646" spans="4:4">
+    <row r="646" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D646"/>
     </row>
-    <row r="647" spans="4:4">
+    <row r="647" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D647"/>
     </row>
-    <row r="648" spans="4:4">
+    <row r="648" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D648"/>
     </row>
-    <row r="649" spans="4:4">
+    <row r="649" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D649"/>
     </row>
-    <row r="650" spans="4:4">
+    <row r="650" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D650"/>
     </row>
-    <row r="651" spans="4:4">
+    <row r="651" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D651"/>
     </row>
-    <row r="652" spans="4:4">
+    <row r="652" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D652"/>
     </row>
-    <row r="653" spans="4:4">
+    <row r="653" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D653"/>
     </row>
-    <row r="654" spans="4:4">
+    <row r="654" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D654"/>
     </row>
-    <row r="655" spans="4:4">
+    <row r="655" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D655"/>
     </row>
-    <row r="656" spans="4:4">
+    <row r="656" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D656"/>
     </row>
-    <row r="657" spans="4:4">
+    <row r="657" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D657"/>
     </row>
-    <row r="658" spans="4:4">
+    <row r="658" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D658"/>
     </row>
-    <row r="659" spans="4:4">
+    <row r="659" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D659"/>
     </row>
-    <row r="660" spans="4:4">
+    <row r="660" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D660"/>
     </row>
-    <row r="661" spans="4:4">
+    <row r="661" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D661"/>
     </row>
-    <row r="662" spans="4:4">
+    <row r="662" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D662"/>
     </row>
-    <row r="663" spans="4:4">
+    <row r="663" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D663"/>
     </row>
-    <row r="664" spans="4:4">
+    <row r="664" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D664"/>
     </row>
-    <row r="665" spans="4:4">
+    <row r="665" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D665"/>
     </row>
-    <row r="666" spans="4:4">
+    <row r="666" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D666"/>
     </row>
-    <row r="667" spans="4:4">
+    <row r="667" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D667"/>
     </row>
-    <row r="668" spans="4:4">
+    <row r="668" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D668"/>
     </row>
-    <row r="669" spans="4:4">
+    <row r="669" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D669"/>
     </row>
-    <row r="670" spans="4:4">
+    <row r="670" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D670"/>
     </row>
-    <row r="671" spans="4:4">
+    <row r="671" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D671"/>
     </row>
-    <row r="672" spans="4:4">
+    <row r="672" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D672"/>
     </row>
-    <row r="673" spans="4:4">
+    <row r="673" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D673"/>
     </row>
-    <row r="674" spans="4:4">
+    <row r="674" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D674"/>
     </row>
-    <row r="675" spans="4:4">
+    <row r="675" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D675"/>
     </row>
-    <row r="676" spans="4:4">
+    <row r="676" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D676"/>
     </row>
-    <row r="677" spans="4:4">
+    <row r="677" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D677"/>
     </row>
-    <row r="678" spans="4:4">
+    <row r="678" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D678"/>
     </row>
-    <row r="679" spans="4:4">
+    <row r="679" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D679"/>
     </row>
-    <row r="680" spans="4:4">
+    <row r="680" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D680"/>
     </row>
-    <row r="681" spans="4:4">
+    <row r="681" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D681"/>
     </row>
-    <row r="682" spans="4:4">
+    <row r="682" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D682"/>
     </row>
-    <row r="683" spans="4:4">
+    <row r="683" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D683"/>
     </row>
-    <row r="684" spans="4:4">
+    <row r="684" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D684"/>
     </row>
-    <row r="685" spans="4:4">
+    <row r="685" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D685"/>
     </row>
-    <row r="686" spans="4:4">
+    <row r="686" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D686"/>
     </row>
-    <row r="687" spans="4:4">
+    <row r="687" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D687"/>
     </row>
-    <row r="688" spans="4:4">
+    <row r="688" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D688"/>
     </row>
-    <row r="689" spans="4:4">
+    <row r="689" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D689"/>
     </row>
-    <row r="690" spans="4:4">
+    <row r="690" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D690"/>
     </row>
-    <row r="691" spans="4:4">
+    <row r="691" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D691"/>
     </row>
-    <row r="692" spans="4:4">
+    <row r="692" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D692"/>
     </row>
-    <row r="693" spans="4:4">
+    <row r="693" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D693"/>
     </row>
-    <row r="694" spans="4:4">
+    <row r="694" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D694"/>
     </row>
-    <row r="695" spans="4:4">
+    <row r="695" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D695"/>
     </row>
-    <row r="696" spans="4:4">
+    <row r="696" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D696"/>
     </row>
-    <row r="697" spans="4:4">
+    <row r="697" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D697"/>
     </row>
-    <row r="698" spans="4:4">
+    <row r="698" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D698"/>
     </row>
-    <row r="699" spans="4:4">
+    <row r="699" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D699"/>
     </row>
-    <row r="700" spans="4:4">
+    <row r="700" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D700"/>
     </row>
-    <row r="701" spans="4:4">
+    <row r="701" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D701"/>
     </row>
-    <row r="702" spans="4:4">
+    <row r="702" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D702"/>
     </row>
-    <row r="703" spans="4:4">
+    <row r="703" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D703"/>
     </row>
-    <row r="704" spans="4:4">
+    <row r="704" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D704"/>
     </row>
-    <row r="705" spans="4:4">
+    <row r="705" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D705"/>
     </row>
-    <row r="706" spans="4:4">
+    <row r="706" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D706"/>
     </row>
-    <row r="707" spans="4:4">
+    <row r="707" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D707"/>
     </row>
-    <row r="708" spans="4:4">
+    <row r="708" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D708"/>
     </row>
-    <row r="709" spans="4:4">
+    <row r="709" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D709"/>
     </row>
-    <row r="710" spans="4:4">
+    <row r="710" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D710"/>
     </row>
-    <row r="711" spans="4:4">
+    <row r="711" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D711"/>
     </row>
-    <row r="712" spans="4:4">
+    <row r="712" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D712"/>
     </row>
-    <row r="713" spans="4:4">
+    <row r="713" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D713"/>
     </row>
-    <row r="714" spans="4:4">
+    <row r="714" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D714"/>
     </row>
-    <row r="715" spans="4:4">
+    <row r="715" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D715"/>
     </row>
-    <row r="716" spans="4:4">
+    <row r="716" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D716"/>
     </row>
-    <row r="717" spans="4:4">
+    <row r="717" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D717"/>
     </row>
-    <row r="718" spans="4:4">
+    <row r="718" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D718"/>
     </row>
-    <row r="719" spans="4:4">
+    <row r="719" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D719"/>
     </row>
-    <row r="720" spans="4:4">
+    <row r="720" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D720"/>
     </row>
-    <row r="721" spans="4:4">
+    <row r="721" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D721"/>
     </row>
-    <row r="722" spans="4:4">
+    <row r="722" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D722"/>
     </row>
-    <row r="723" spans="4:4">
+    <row r="723" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D723"/>
     </row>
-    <row r="724" spans="4:4">
+    <row r="724" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D724"/>
     </row>
-    <row r="725" spans="4:4">
+    <row r="725" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D725"/>
     </row>
-    <row r="726" spans="4:4">
+    <row r="726" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D726"/>
     </row>
-    <row r="727" spans="4:4">
+    <row r="727" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D727"/>
     </row>
-    <row r="728" spans="4:4">
+    <row r="728" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D728"/>
     </row>
-    <row r="729" spans="4:4">
+    <row r="729" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D729"/>
     </row>
-    <row r="730" spans="4:4">
+    <row r="730" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D730"/>
     </row>
-    <row r="731" spans="4:4">
+    <row r="731" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D731"/>
     </row>
-    <row r="732" spans="4:4">
+    <row r="732" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D732"/>
     </row>
-    <row r="733" spans="4:4">
+    <row r="733" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D733"/>
     </row>
-    <row r="734" spans="4:4">
+    <row r="734" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D734"/>
     </row>
-    <row r="735" spans="4:4">
+    <row r="735" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D735"/>
     </row>
-    <row r="736" spans="4:4">
+    <row r="736" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D736"/>
     </row>
-    <row r="737" spans="4:4">
+    <row r="737" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D737"/>
     </row>
-    <row r="738" spans="4:4">
+    <row r="738" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D738"/>
     </row>
-    <row r="739" spans="4:4">
+    <row r="739" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D739"/>
     </row>
-    <row r="740" spans="4:4">
+    <row r="740" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D740"/>
     </row>
-    <row r="741" spans="4:4">
+    <row r="741" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D741"/>
     </row>
-    <row r="742" spans="4:4">
+    <row r="742" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D742"/>
     </row>
-    <row r="743" spans="4:4">
+    <row r="743" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D743"/>
     </row>
-    <row r="744" spans="4:4">
+    <row r="744" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D744"/>
     </row>
-    <row r="745" spans="4:4">
+    <row r="745" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D745"/>
     </row>
-    <row r="746" spans="4:4">
+    <row r="746" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D746"/>
     </row>
-    <row r="747" spans="4:4">
+    <row r="747" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D747"/>
     </row>
-    <row r="748" spans="4:4">
+    <row r="748" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D748"/>
     </row>
-    <row r="749" spans="4:4">
+    <row r="749" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D749"/>
     </row>
-    <row r="750" spans="4:4">
+    <row r="750" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D750"/>
     </row>
-    <row r="751" spans="4:4">
+    <row r="751" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D751"/>
     </row>
-    <row r="752" spans="4:4">
+    <row r="752" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D752"/>
     </row>
-    <row r="753" spans="4:4">
+    <row r="753" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D753"/>
     </row>
-    <row r="754" spans="4:4">
+    <row r="754" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D754"/>
     </row>
-    <row r="755" spans="4:4">
+    <row r="755" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D755"/>
     </row>
-    <row r="756" spans="4:4">
+    <row r="756" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D756"/>
     </row>
-    <row r="757" spans="4:4">
+    <row r="757" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D757"/>
     </row>
-    <row r="758" spans="4:4">
+    <row r="758" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D758"/>
     </row>
-    <row r="759" spans="4:4">
+    <row r="759" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D759"/>
     </row>
-    <row r="760" spans="4:4">
+    <row r="760" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D760"/>
     </row>
-    <row r="761" spans="4:4">
+    <row r="761" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D761"/>
     </row>
-    <row r="762" spans="4:4">
+    <row r="762" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D762"/>
     </row>
-    <row r="763" spans="4:4">
+    <row r="763" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D763"/>
     </row>
-    <row r="764" spans="4:4">
+    <row r="764" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D764"/>
     </row>
-    <row r="765" spans="4:4">
+    <row r="765" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D765"/>
     </row>
-    <row r="766" spans="4:4">
+    <row r="766" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D766"/>
     </row>
-    <row r="767" spans="4:4">
+    <row r="767" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D767"/>
     </row>
-    <row r="768" spans="4:4">
+    <row r="768" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D768"/>
     </row>
-    <row r="769" spans="4:4">
+    <row r="769" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D769"/>
     </row>
-    <row r="770" spans="4:4">
+    <row r="770" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D770"/>
     </row>
-    <row r="771" spans="4:4">
+    <row r="771" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D771"/>
     </row>
-    <row r="772" spans="4:4">
+    <row r="772" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D772"/>
     </row>
-    <row r="773" spans="4:4">
+    <row r="773" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D773"/>
     </row>
-    <row r="774" spans="4:4">
+    <row r="774" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D774"/>
     </row>
-    <row r="775" spans="4:4">
+    <row r="775" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D775"/>
     </row>
-    <row r="776" spans="4:4">
+    <row r="776" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D776"/>
     </row>
-    <row r="777" spans="4:4">
+    <row r="777" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D777"/>
     </row>
-    <row r="778" spans="4:4">
+    <row r="778" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D778"/>
     </row>
-    <row r="779" spans="4:4">
+    <row r="779" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D779"/>
     </row>
-    <row r="780" spans="4:4">
+    <row r="780" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D780"/>
     </row>
-    <row r="781" spans="4:4">
+    <row r="781" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D781"/>
     </row>
-    <row r="782" spans="4:4">
+    <row r="782" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D782"/>
     </row>
-    <row r="783" spans="4:4">
+    <row r="783" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D783"/>
     </row>
-    <row r="784" spans="4:4">
+    <row r="784" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D784"/>
     </row>
-    <row r="785" spans="4:4">
+    <row r="785" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D785"/>
     </row>
-    <row r="786" spans="4:4">
+    <row r="786" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D786"/>
     </row>
-    <row r="787" spans="4:4">
+    <row r="787" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D787"/>
     </row>
-    <row r="788" spans="4:4">
+    <row r="788" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D788"/>
     </row>
-    <row r="789" spans="4:4">
+    <row r="789" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D789"/>
     </row>
-    <row r="790" spans="4:4">
+    <row r="790" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D790"/>
     </row>
-    <row r="791" spans="4:4">
+    <row r="791" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D791"/>
     </row>
-    <row r="792" spans="4:4">
+    <row r="792" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D792"/>
     </row>
-    <row r="793" spans="4:4">
+    <row r="793" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D793"/>
     </row>
-    <row r="794" spans="4:4">
+    <row r="794" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D794"/>
     </row>
-    <row r="795" spans="4:4">
+    <row r="795" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D795"/>
     </row>
-    <row r="796" spans="4:4">
+    <row r="796" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D796"/>
     </row>
-    <row r="797" spans="4:4">
+    <row r="797" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D797"/>
     </row>
-    <row r="798" spans="4:4">
+    <row r="798" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D798"/>
     </row>
-    <row r="799" spans="4:4">
+    <row r="799" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D799"/>
     </row>
-    <row r="800" spans="4:4">
+    <row r="800" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D800"/>
     </row>
-    <row r="801" spans="4:4">
+    <row r="801" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D801"/>
     </row>
-    <row r="802" spans="4:4">
+    <row r="802" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D802"/>
     </row>
-    <row r="803" spans="4:4">
+    <row r="803" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D803"/>
     </row>
-    <row r="804" spans="4:4">
+    <row r="804" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D804"/>
     </row>
-    <row r="805" spans="4:4">
+    <row r="805" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D805"/>
     </row>
-    <row r="806" spans="4:4">
+    <row r="806" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D806"/>
     </row>
-    <row r="807" spans="4:4">
+    <row r="807" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D807"/>
     </row>
-    <row r="808" spans="4:4">
+    <row r="808" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D808"/>
     </row>
-    <row r="809" spans="4:4">
+    <row r="809" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D809"/>
     </row>
-    <row r="810" spans="4:4">
+    <row r="810" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D810"/>
     </row>
-    <row r="811" spans="4:4">
+    <row r="811" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D811"/>
     </row>
-    <row r="812" spans="4:4">
+    <row r="812" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D812"/>
     </row>
-    <row r="813" spans="4:4">
+    <row r="813" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D813"/>
     </row>
-    <row r="814" spans="4:4">
+    <row r="814" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D814"/>
     </row>
-    <row r="815" spans="4:4">
+    <row r="815" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D815"/>
     </row>
-    <row r="816" spans="4:4">
+    <row r="816" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D816"/>
     </row>
-    <row r="817" spans="4:4">
+    <row r="817" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D817"/>
     </row>
-    <row r="818" spans="4:4">
+    <row r="818" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D818"/>
     </row>
-    <row r="819" spans="4:4">
+    <row r="819" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D819"/>
     </row>
-    <row r="820" spans="4:4">
+    <row r="820" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D820"/>
     </row>
-    <row r="821" spans="4:4">
+    <row r="821" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D821"/>
     </row>
-    <row r="822" spans="4:4">
+    <row r="822" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D822"/>
     </row>
-    <row r="823" spans="4:4">
+    <row r="823" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D823"/>
     </row>
-    <row r="824" spans="4:4">
+    <row r="824" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D824"/>
     </row>
-    <row r="825" spans="4:4">
+    <row r="825" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D825"/>
     </row>
-    <row r="826" spans="4:4">
+    <row r="826" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D826"/>
     </row>
-    <row r="827" spans="4:4">
+    <row r="827" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D827"/>
     </row>
-    <row r="828" spans="4:4">
+    <row r="828" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D828"/>
     </row>
-    <row r="829" spans="4:4">
+    <row r="829" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D829"/>
     </row>
-    <row r="830" spans="4:4">
+    <row r="830" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D830"/>
     </row>
-    <row r="831" spans="4:4">
+    <row r="831" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D831"/>
     </row>
-    <row r="832" spans="4:4">
+    <row r="832" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D832"/>
     </row>
-    <row r="833" spans="4:4">
+    <row r="833" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D833"/>
     </row>
-    <row r="834" spans="4:4">
+    <row r="834" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D834"/>
     </row>
-    <row r="835" spans="4:4">
+    <row r="835" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D835"/>
     </row>
-    <row r="836" spans="4:4">
+    <row r="836" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D836"/>
     </row>
-    <row r="837" spans="4:4">
+    <row r="837" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D837"/>
     </row>
-    <row r="838" spans="4:4">
+    <row r="838" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D838"/>
     </row>
-    <row r="839" spans="4:4">
+    <row r="839" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D839"/>
     </row>
-    <row r="840" spans="4:4">
+    <row r="840" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D840"/>
     </row>
-    <row r="841" spans="4:4">
+    <row r="841" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D841"/>
     </row>
-    <row r="842" spans="4:4">
+    <row r="842" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D842"/>
     </row>
-    <row r="843" spans="4:4">
+    <row r="843" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D843"/>
     </row>
-    <row r="844" spans="4:4">
+    <row r="844" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D844"/>
     </row>
-    <row r="845" spans="4:4">
+    <row r="845" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D845"/>
     </row>
-    <row r="846" spans="4:4">
+    <row r="846" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D846"/>
     </row>
-    <row r="847" spans="4:4">
+    <row r="847" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D847"/>
     </row>
-    <row r="848" spans="4:4">
+    <row r="848" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D848"/>
     </row>
-    <row r="849" spans="4:4">
+    <row r="849" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D849"/>
     </row>
-    <row r="850" spans="4:4">
+    <row r="850" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D850"/>
     </row>
-    <row r="851" spans="4:4">
+    <row r="851" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D851"/>
     </row>
-    <row r="852" spans="4:4">
+    <row r="852" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D852"/>
     </row>
-    <row r="853" spans="4:4">
+    <row r="853" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D853"/>
     </row>
-    <row r="854" spans="4:4">
+    <row r="854" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D854"/>
     </row>
-    <row r="855" spans="4:4">
+    <row r="855" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D855"/>
     </row>
-    <row r="856" spans="4:4">
+    <row r="856" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D856"/>
     </row>
-    <row r="857" spans="4:4">
+    <row r="857" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D857"/>
     </row>
-    <row r="858" spans="4:4">
+    <row r="858" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D858"/>
     </row>
-    <row r="859" spans="4:4">
+    <row r="859" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D859"/>
     </row>
-    <row r="860" spans="4:4">
+    <row r="860" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D860"/>
     </row>
-    <row r="861" spans="4:4">
+    <row r="861" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D861"/>
     </row>
-    <row r="862" spans="4:4">
+    <row r="862" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D862"/>
     </row>
-    <row r="863" spans="4:4">
+    <row r="863" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D863"/>
     </row>
-    <row r="864" spans="4:4">
+    <row r="864" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D864"/>
     </row>
-    <row r="865" spans="4:4">
+    <row r="865" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D865"/>
     </row>
-    <row r="866" spans="4:4">
+    <row r="866" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D866"/>
     </row>
-    <row r="867" spans="4:4">
+    <row r="867" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D867"/>
     </row>
-    <row r="868" spans="4:4">
+    <row r="868" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D868"/>
     </row>
-    <row r="869" spans="4:4">
+    <row r="869" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D869"/>
     </row>
-    <row r="870" spans="4:4">
+    <row r="870" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D870"/>
     </row>
-    <row r="871" spans="4:4">
+    <row r="871" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D871"/>
     </row>
-    <row r="872" spans="4:4">
+    <row r="872" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D872"/>
     </row>
-    <row r="873" spans="4:4">
+    <row r="873" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D873"/>
     </row>
-    <row r="874" spans="4:4">
+    <row r="874" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D874"/>
     </row>
-    <row r="875" spans="4:4">
+    <row r="875" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D875"/>
     </row>
-    <row r="876" spans="4:4">
+    <row r="876" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D876"/>
     </row>
-    <row r="877" spans="4:4">
+    <row r="877" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D877"/>
     </row>
-    <row r="878" spans="4:4">
+    <row r="878" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D878"/>
     </row>
-    <row r="879" spans="4:4">
+    <row r="879" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D879"/>
     </row>
-    <row r="880" spans="4:4">
+    <row r="880" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D880"/>
     </row>
-    <row r="881" spans="4:4">
+    <row r="881" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D881"/>
     </row>
-    <row r="882" spans="4:4">
+    <row r="882" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D882"/>
     </row>
-    <row r="883" spans="4:4">
+    <row r="883" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D883"/>
     </row>
-    <row r="884" spans="4:4">
+    <row r="884" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D884"/>
     </row>
-    <row r="885" spans="4:4">
+    <row r="885" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D885"/>
     </row>
-    <row r="886" spans="4:4">
+    <row r="886" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D886"/>
     </row>
-    <row r="887" spans="4:4">
+    <row r="887" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D887"/>
     </row>
-    <row r="888" spans="4:4">
+    <row r="888" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D888"/>
     </row>
-    <row r="889" spans="4:4">
+    <row r="889" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D889"/>
     </row>
-    <row r="890" spans="4:4">
+    <row r="890" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D890"/>
     </row>
-    <row r="891" spans="4:4">
+    <row r="891" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D891"/>
     </row>
-    <row r="892" spans="4:4">
+    <row r="892" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D892"/>
     </row>
-    <row r="893" spans="4:4">
+    <row r="893" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D893"/>
     </row>
-    <row r="894" spans="4:4">
+    <row r="894" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D894"/>
     </row>
-    <row r="895" spans="4:4">
+    <row r="895" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D895"/>
     </row>
-    <row r="896" spans="4:4">
+    <row r="896" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D896"/>
     </row>
-    <row r="897" spans="4:4">
+    <row r="897" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D897"/>
     </row>
-    <row r="898" spans="4:4">
+    <row r="898" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D898"/>
     </row>
-    <row r="899" spans="4:4">
+    <row r="899" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D899"/>
     </row>
-    <row r="900" spans="4:4">
+    <row r="900" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D900"/>
     </row>
-    <row r="901" spans="4:4">
+    <row r="901" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D901"/>
     </row>
-    <row r="902" spans="4:4">
+    <row r="902" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D902"/>
     </row>
-    <row r="903" spans="4:4">
+    <row r="903" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D903"/>
     </row>
-    <row r="904" spans="4:4">
+    <row r="904" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D904"/>
     </row>
-    <row r="905" spans="4:4">
+    <row r="905" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D905"/>
     </row>
-    <row r="906" spans="4:4">
+    <row r="906" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D906"/>
     </row>
-    <row r="907" spans="4:4">
+    <row r="907" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D907"/>
     </row>
-    <row r="908" spans="4:4">
+    <row r="908" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D908"/>
     </row>
-    <row r="909" spans="4:4">
+    <row r="909" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D909"/>
     </row>
-    <row r="910" spans="4:4">
+    <row r="910" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D910"/>
     </row>
-    <row r="911" spans="4:4">
+    <row r="911" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D911"/>
     </row>
-    <row r="912" spans="4:4">
+    <row r="912" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D912"/>
     </row>
-    <row r="913" spans="4:4">
+    <row r="913" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D913"/>
     </row>
-    <row r="914" spans="4:4">
+    <row r="914" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D914"/>
     </row>
-    <row r="915" spans="4:4">
+    <row r="915" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D915"/>
     </row>
-    <row r="916" spans="4:4">
+    <row r="916" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D916"/>
     </row>
-    <row r="917" spans="4:4">
+    <row r="917" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D917"/>
     </row>
-    <row r="918" spans="4:4">
+    <row r="918" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D918"/>
     </row>
-    <row r="919" spans="4:4">
+    <row r="919" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D919"/>
     </row>
-    <row r="920" spans="4:4">
+    <row r="920" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D920"/>
     </row>
-    <row r="921" spans="4:4">
+    <row r="921" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D921"/>
     </row>
-    <row r="922" spans="4:4">
+    <row r="922" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D922"/>
     </row>
-    <row r="923" spans="4:4">
+    <row r="923" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D923"/>
     </row>
-    <row r="924" spans="4:4">
+    <row r="924" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D924"/>
     </row>
-    <row r="925" spans="4:4">
+    <row r="925" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D925"/>
     </row>
-    <row r="926" spans="4:4">
+    <row r="926" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D926"/>
     </row>
-    <row r="927" spans="4:4">
+    <row r="927" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D927"/>
     </row>
-    <row r="928" spans="4:4">
+    <row r="928" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D928"/>
     </row>
-    <row r="929" spans="4:4">
+    <row r="929" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D929"/>
     </row>
-    <row r="930" spans="4:4">
+    <row r="930" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D930"/>
     </row>
-    <row r="931" spans="4:4">
+    <row r="931" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D931"/>
     </row>
-    <row r="932" spans="4:4">
+    <row r="932" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D932"/>
     </row>
-    <row r="933" spans="4:4">
+    <row r="933" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D933"/>
     </row>
-    <row r="934" spans="4:4">
+    <row r="934" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D934"/>
     </row>
-    <row r="935" spans="4:4">
+    <row r="935" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D935"/>
     </row>
-    <row r="936" spans="4:4">
+    <row r="936" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D936"/>
     </row>
-    <row r="937" spans="4:4">
+    <row r="937" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D937"/>
     </row>
-    <row r="938" spans="4:4">
+    <row r="938" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D938"/>
     </row>
-    <row r="939" spans="4:4">
+    <row r="939" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D939"/>
     </row>
-    <row r="940" spans="4:4">
+    <row r="940" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D940"/>
     </row>
-    <row r="941" spans="4:4">
+    <row r="941" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D941"/>
     </row>
-    <row r="942" spans="4:4">
+    <row r="942" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D942"/>
     </row>
-    <row r="943" spans="4:4">
+    <row r="943" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D943"/>
     </row>
-    <row r="944" spans="4:4">
+    <row r="944" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D944"/>
     </row>
-    <row r="945" spans="4:4">
+    <row r="945" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D945"/>
     </row>
-    <row r="946" spans="4:4">
+    <row r="946" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D946"/>
     </row>
-    <row r="947" spans="4:4">
+    <row r="947" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D947"/>
     </row>
-    <row r="948" spans="4:4">
+    <row r="948" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D948"/>
     </row>
-    <row r="949" spans="4:4">
+    <row r="949" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D949"/>
     </row>
-    <row r="950" spans="4:4">
+    <row r="950" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D950"/>
     </row>
-    <row r="951" spans="4:4">
+    <row r="951" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D951"/>
     </row>
-    <row r="952" spans="4:4">
+    <row r="952" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D952"/>
     </row>
-    <row r="953" spans="4:4">
+    <row r="953" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D953"/>
     </row>
-    <row r="954" spans="4:4">
+    <row r="954" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D954"/>
     </row>
-    <row r="955" spans="4:4">
+    <row r="955" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D955"/>
     </row>
-    <row r="956" spans="4:4">
+    <row r="956" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D956"/>
     </row>
-    <row r="957" spans="4:4">
+    <row r="957" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D957"/>
     </row>
-    <row r="958" spans="4:4">
+    <row r="958" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D958"/>
     </row>
-    <row r="959" spans="4:4">
+    <row r="959" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D959"/>
     </row>
-    <row r="960" spans="4:4">
+    <row r="960" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D960"/>
     </row>
-    <row r="961" spans="4:4">
+    <row r="961" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D961"/>
     </row>
-    <row r="962" spans="4:4">
+    <row r="962" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D962"/>
     </row>
-    <row r="963" spans="4:4">
+    <row r="963" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D963"/>
     </row>
-    <row r="964" spans="4:4">
+    <row r="964" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D964"/>
     </row>
-    <row r="965" spans="4:4">
+    <row r="965" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D965"/>
     </row>
-    <row r="966" spans="4:4">
+    <row r="966" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D966"/>
     </row>
-    <row r="967" spans="4:4">
+    <row r="967" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D967"/>
     </row>
-    <row r="968" spans="4:4">
+    <row r="968" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D968"/>
     </row>
-    <row r="969" spans="4:4">
+    <row r="969" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D969"/>
     </row>
-    <row r="970" spans="4:4">
+    <row r="970" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D970"/>
     </row>
-    <row r="971" spans="4:4">
+    <row r="971" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D971"/>
     </row>
-    <row r="972" spans="4:4">
+    <row r="972" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D972"/>
     </row>
-    <row r="973" spans="4:4">
+    <row r="973" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D973"/>
     </row>
-    <row r="974" spans="4:4">
+    <row r="974" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D974"/>
     </row>
-    <row r="975" spans="4:4">
+    <row r="975" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D975"/>
     </row>
-    <row r="976" spans="4:4">
+    <row r="976" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D976"/>
     </row>
-    <row r="977" spans="4:4">
+    <row r="977" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D977"/>
     </row>
-    <row r="978" spans="4:4">
+    <row r="978" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D978"/>
     </row>
-    <row r="979" spans="4:4">
+    <row r="979" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D979"/>
     </row>
-    <row r="980" spans="4:4">
+    <row r="980" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D980"/>
     </row>
-    <row r="981" spans="4:4">
+    <row r="981" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D981"/>
     </row>
-    <row r="982" spans="4:4">
+    <row r="982" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D982"/>
     </row>
-    <row r="983" spans="4:4">
+    <row r="983" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D983"/>
     </row>
-    <row r="984" spans="4:4">
+    <row r="984" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D984"/>
     </row>
-    <row r="985" spans="4:4">
+    <row r="985" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D985"/>
     </row>
-    <row r="986" spans="4:4">
+    <row r="986" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D986"/>
     </row>
-    <row r="987" spans="4:4">
+    <row r="987" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D987"/>
     </row>
-    <row r="988" spans="4:4">
+    <row r="988" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D988"/>
     </row>
-    <row r="989" spans="4:4">
+    <row r="989" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D989"/>
     </row>
-    <row r="990" spans="4:4">
+    <row r="990" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D990"/>
     </row>
-    <row r="991" spans="4:4">
+    <row r="991" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D991"/>
     </row>
-    <row r="992" spans="4:4">
+    <row r="992" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D992"/>
     </row>
-    <row r="993" spans="4:4">
+    <row r="993" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D993"/>
     </row>
-    <row r="994" spans="4:4">
+    <row r="994" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D994"/>
     </row>
-    <row r="995" spans="4:4">
+    <row r="995" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D995"/>
     </row>
-    <row r="996" spans="4:4">
+    <row r="996" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D996"/>
     </row>
-    <row r="997" spans="4:4">
+    <row r="997" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D997"/>
     </row>
-    <row r="998" spans="4:4">
+    <row r="998" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D998"/>
     </row>
-    <row r="999" spans="4:4">
+    <row r="999" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D999"/>
     </row>
-    <row r="1000" spans="4:4">
+    <row r="1000" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1000"/>
     </row>
-    <row r="1001" spans="4:4">
+    <row r="1001" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1001"/>
     </row>
-    <row r="1002" spans="4:4">
+    <row r="1002" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1002"/>
     </row>
-    <row r="1003" spans="4:4">
+    <row r="1003" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1003"/>
     </row>
-    <row r="1004" spans="4:4">
+    <row r="1004" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1004"/>
     </row>
-    <row r="1005" spans="4:4">
+    <row r="1005" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1005"/>
     </row>
-    <row r="1006" spans="4:4">
+    <row r="1006" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1006"/>
     </row>
-    <row r="1007" spans="4:4">
+    <row r="1007" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1007"/>
     </row>
-    <row r="1008" spans="4:4">
+    <row r="1008" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1008"/>
     </row>
-    <row r="1009" spans="4:4">
+    <row r="1009" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1009"/>
     </row>
-    <row r="1010" spans="4:4">
+    <row r="1010" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1010"/>
     </row>
-    <row r="1011" spans="4:4">
+    <row r="1011" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1011"/>
     </row>
-    <row r="1012" spans="4:4">
+    <row r="1012" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1012"/>
     </row>
-    <row r="1013" spans="4:4">
+    <row r="1013" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1013"/>
     </row>
-    <row r="1014" spans="4:4">
+    <row r="1014" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1014"/>
     </row>
-    <row r="1015" spans="4:4">
+    <row r="1015" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1015"/>
     </row>
-    <row r="1016" spans="4:4">
+    <row r="1016" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1016"/>
     </row>
-    <row r="1017" spans="4:4">
+    <row r="1017" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1017"/>
     </row>
-    <row r="1018" spans="4:4">
+    <row r="1018" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1018"/>
     </row>
-    <row r="1019" spans="4:4">
+    <row r="1019" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1019"/>
     </row>
-    <row r="1020" spans="4:4">
+    <row r="1020" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1020"/>
     </row>
-    <row r="1021" spans="4:4">
+    <row r="1021" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1021"/>
     </row>
-    <row r="1022" spans="4:4">
+    <row r="1022" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1022"/>
     </row>
-    <row r="1023" spans="4:4">
+    <row r="1023" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1023"/>
     </row>
-    <row r="1024" spans="4:4">
+    <row r="1024" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1024"/>
     </row>
-    <row r="1025" spans="4:4">
+    <row r="1025" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1025"/>
     </row>
-    <row r="1026" spans="4:4">
+    <row r="1026" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1026"/>
     </row>
-    <row r="1027" spans="4:4">
+    <row r="1027" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1027"/>
     </row>
-    <row r="1028" spans="4:4">
+    <row r="1028" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1028"/>
     </row>
-    <row r="1029" spans="4:4">
+    <row r="1029" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1029"/>
     </row>
-    <row r="1030" spans="4:4">
+    <row r="1030" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1030"/>
     </row>
-    <row r="1031" spans="4:4">
+    <row r="1031" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1031"/>
     </row>
-    <row r="1032" spans="4:4">
+    <row r="1032" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1032"/>
     </row>
-    <row r="1033" spans="4:4">
+    <row r="1033" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1033"/>
     </row>
-    <row r="1034" spans="4:4">
+    <row r="1034" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1034"/>
     </row>
-    <row r="1035" spans="4:4">
+    <row r="1035" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1035"/>
     </row>
-    <row r="1036" spans="4:4">
+    <row r="1036" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1036"/>
     </row>
-    <row r="1037" spans="4:4">
+    <row r="1037" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1037"/>
     </row>
-    <row r="1038" spans="4:4">
+    <row r="1038" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1038"/>
     </row>
-    <row r="1039" spans="4:4">
+    <row r="1039" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1039"/>
     </row>
-    <row r="1040" spans="4:4">
+    <row r="1040" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1040"/>
     </row>
-    <row r="1041" spans="4:4">
+    <row r="1041" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1041"/>
     </row>
-    <row r="1042" spans="4:4">
+    <row r="1042" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1042"/>
     </row>
-    <row r="1043" spans="4:4">
+    <row r="1043" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1043"/>
     </row>
-    <row r="1044" spans="4:4">
+    <row r="1044" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1044"/>
     </row>
-    <row r="1045" spans="4:4">
+    <row r="1045" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1045"/>
     </row>
-    <row r="1046" spans="4:4">
+    <row r="1046" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1046"/>
     </row>
-    <row r="1047" spans="4:4">
+    <row r="1047" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1047"/>
     </row>
-    <row r="1048" spans="4:4">
+    <row r="1048" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1048"/>
     </row>
-    <row r="1049" spans="4:4">
+    <row r="1049" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1049"/>
     </row>
-    <row r="1050" spans="4:4">
+    <row r="1050" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1050"/>
     </row>
-    <row r="1051" spans="4:4">
+    <row r="1051" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1051"/>
     </row>
-    <row r="1052" spans="4:4">
+    <row r="1052" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1052"/>
     </row>
-    <row r="1053" spans="4:4">
+    <row r="1053" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1053"/>
     </row>
-    <row r="1054" spans="4:4">
+    <row r="1054" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1054"/>
     </row>
-    <row r="1055" spans="4:4">
+    <row r="1055" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1055"/>
     </row>
-    <row r="1056" spans="4:4">
+    <row r="1056" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1056"/>
     </row>
-    <row r="1057" spans="4:4">
+    <row r="1057" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1057"/>
     </row>
-    <row r="1058" spans="4:4">
+    <row r="1058" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1058"/>
     </row>
-    <row r="1059" spans="4:4">
+    <row r="1059" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1059"/>
     </row>
-    <row r="1060" spans="4:4">
+    <row r="1060" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1060"/>
     </row>
-    <row r="1061" spans="4:4">
+    <row r="1061" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1061"/>
     </row>
-    <row r="1062" spans="4:4">
+    <row r="1062" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1062"/>
     </row>
-    <row r="1063" spans="4:4">
+    <row r="1063" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1063"/>
     </row>
-    <row r="1064" spans="4:4">
+    <row r="1064" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1064"/>
     </row>
-    <row r="1065" spans="4:4">
+    <row r="1065" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1065"/>
     </row>
-    <row r="1066" spans="4:4">
+    <row r="1066" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1066"/>
     </row>
-    <row r="1067" spans="4:4">
+    <row r="1067" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1067"/>
     </row>
-    <row r="1068" spans="4:4">
+    <row r="1068" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1068"/>
     </row>
-    <row r="1069" spans="4:4">
+    <row r="1069" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1069"/>
     </row>
-    <row r="1070" spans="4:4">
+    <row r="1070" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1070"/>
     </row>
-    <row r="1071" spans="4:4">
+    <row r="1071" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1071"/>
     </row>
-    <row r="1072" spans="4:4">
+    <row r="1072" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1072"/>
     </row>
-    <row r="1073" spans="4:4">
+    <row r="1073" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1073"/>
     </row>
-    <row r="1074" spans="4:4">
+    <row r="1074" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1074"/>
     </row>
-    <row r="1075" spans="4:4">
+    <row r="1075" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1075"/>
     </row>
-    <row r="1076" spans="4:4">
+    <row r="1076" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1076"/>
     </row>
-    <row r="1077" spans="4:4">
+    <row r="1077" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1077"/>
     </row>
-    <row r="1078" spans="4:4">
+    <row r="1078" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1078"/>
     </row>
-    <row r="1079" spans="4:4">
+    <row r="1079" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1079"/>
     </row>
-    <row r="1080" spans="4:4">
+    <row r="1080" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1080"/>
     </row>
-    <row r="1081" spans="4:4">
+    <row r="1081" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1081"/>
     </row>
-    <row r="1082" spans="4:4">
+    <row r="1082" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1082"/>
     </row>
-    <row r="1083" spans="4:4">
+    <row r="1083" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1083"/>
     </row>
-    <row r="1084" spans="4:4">
+    <row r="1084" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1084"/>
     </row>
-    <row r="1085" spans="4:4">
+    <row r="1085" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1085"/>
     </row>
-    <row r="1086" spans="4:4">
+    <row r="1086" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1086"/>
     </row>
-    <row r="1087" spans="4:4">
+    <row r="1087" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1087"/>
     </row>
-    <row r="1088" spans="4:4">
+    <row r="1088" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1088"/>
     </row>
-    <row r="1089" spans="4:4">
+    <row r="1089" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1089"/>
     </row>
-    <row r="1090" spans="4:4">
+    <row r="1090" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1090"/>
     </row>
-    <row r="1091" spans="4:4">
+    <row r="1091" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1091"/>
     </row>
-    <row r="1092" spans="4:4">
+    <row r="1092" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1092"/>
     </row>
-    <row r="1093" spans="4:4">
+    <row r="1093" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1093"/>
     </row>
-    <row r="1094" spans="4:4">
+    <row r="1094" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1094"/>
     </row>
-    <row r="1095" spans="4:4">
+    <row r="1095" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1095"/>
     </row>
-    <row r="1096" spans="4:4">
+    <row r="1096" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1096"/>
     </row>
-    <row r="1097" spans="4:4">
+    <row r="1097" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1097"/>
     </row>
-    <row r="1098" spans="4:4">
+    <row r="1098" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1098"/>
     </row>
-    <row r="1099" spans="4:4">
+    <row r="1099" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1099"/>
     </row>
-    <row r="1100" spans="4:4">
+    <row r="1100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1100"/>
     </row>
-    <row r="1101" spans="4:4">
+    <row r="1101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1101"/>
     </row>
-    <row r="1102" spans="4:4">
+    <row r="1102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1102"/>
     </row>
-    <row r="1103" spans="4:4">
+    <row r="1103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1103"/>
     </row>
-    <row r="1104" spans="4:4">
+    <row r="1104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1104"/>
     </row>
-    <row r="1105" spans="4:4">
+    <row r="1105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1105"/>
     </row>
-    <row r="1106" spans="4:4">
+    <row r="1106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1106"/>
     </row>
-    <row r="1107" spans="4:4">
+    <row r="1107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1107"/>
     </row>
-    <row r="1108" spans="4:4">
+    <row r="1108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1108"/>
     </row>
-    <row r="1109" spans="4:4">
+    <row r="1109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1109"/>
     </row>
-    <row r="1110" spans="4:4">
+    <row r="1110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1110"/>
     </row>
-    <row r="1111" spans="4:4">
+    <row r="1111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1111"/>
     </row>
-    <row r="1112" spans="4:4">
+    <row r="1112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1112"/>
     </row>
-    <row r="1113" spans="4:4">
+    <row r="1113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1113"/>
     </row>
-    <row r="1114" spans="4:4">
+    <row r="1114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1114"/>
     </row>
-    <row r="1115" spans="4:4">
+    <row r="1115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1115"/>
     </row>
-    <row r="1116" spans="4:4">
+    <row r="1116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1116"/>
     </row>
-    <row r="1117" spans="4:4">
+    <row r="1117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1117"/>
     </row>
-    <row r="1118" spans="4:4">
+    <row r="1118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1118"/>
     </row>
-    <row r="1119" spans="4:4">
+    <row r="1119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1119"/>
     </row>
-    <row r="1120" spans="4:4">
+    <row r="1120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1120"/>
     </row>
-    <row r="1121" spans="4:4">
+    <row r="1121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1121"/>
     </row>
-    <row r="1122" spans="4:4">
+    <row r="1122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1122"/>
     </row>
-    <row r="1123" spans="4:4">
+    <row r="1123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1123"/>
     </row>
-    <row r="1124" spans="4:4">
+    <row r="1124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1124"/>
     </row>
-    <row r="1125" spans="4:4">
+    <row r="1125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1125"/>
     </row>
-    <row r="1126" spans="4:4">
+    <row r="1126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1126"/>
     </row>
-    <row r="1127" spans="4:4">
+    <row r="1127" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1127"/>
     </row>
-    <row r="1128" spans="4:4">
+    <row r="1128" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1128"/>
     </row>
-    <row r="1129" spans="4:4">
+    <row r="1129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1129"/>
     </row>
-    <row r="1130" spans="4:4">
+    <row r="1130" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1130"/>
     </row>
-    <row r="1131" spans="4:4">
+    <row r="1131" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1131"/>
     </row>
-    <row r="1132" spans="4:4">
+    <row r="1132" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1132"/>
     </row>
-    <row r="1133" spans="4:4">
+    <row r="1133" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1133"/>
     </row>
-    <row r="1134" spans="4:4">
+    <row r="1134" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1134"/>
     </row>
-    <row r="1135" spans="4:4">
+    <row r="1135" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1135"/>
     </row>
-    <row r="1136" spans="4:4">
+    <row r="1136" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1136"/>
     </row>
-    <row r="1137" spans="4:4">
+    <row r="1137" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1137"/>
     </row>
-    <row r="1138" spans="4:4">
+    <row r="1138" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1138"/>
     </row>
-    <row r="1139" spans="4:4">
+    <row r="1139" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1139"/>
     </row>
-    <row r="1140" spans="4:4">
+    <row r="1140" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1140"/>
     </row>
-    <row r="1141" spans="4:4">
+    <row r="1141" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1141"/>
     </row>
-    <row r="1142" spans="4:4">
+    <row r="1142" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1142"/>
     </row>
-    <row r="1143" spans="4:4">
+    <row r="1143" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1143"/>
     </row>
-    <row r="1144" spans="4:4">
+    <row r="1144" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1144"/>
     </row>
-    <row r="1145" spans="4:4">
+    <row r="1145" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1145"/>
     </row>
-    <row r="1146" spans="4:4">
+    <row r="1146" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1146"/>
     </row>
-    <row r="1147" spans="4:4">
+    <row r="1147" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1147"/>
     </row>
-    <row r="1148" spans="4:4">
+    <row r="1148" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1148"/>
     </row>
-    <row r="1149" spans="4:4">
+    <row r="1149" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1149"/>
     </row>
-    <row r="1150" spans="4:4">
+    <row r="1150" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1150"/>
     </row>
-    <row r="1151" spans="4:4">
+    <row r="1151" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1151"/>
     </row>
-    <row r="1152" spans="4:4">
+    <row r="1152" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1152"/>
     </row>
-    <row r="1153" spans="4:4">
+    <row r="1153" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1153"/>
     </row>
-    <row r="1154" spans="4:4">
+    <row r="1154" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1154"/>
     </row>
-    <row r="1155" spans="4:4">
+    <row r="1155" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1155"/>
     </row>
-    <row r="1156" spans="4:4">
+    <row r="1156" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1156"/>
     </row>
-    <row r="1157" spans="4:4">
+    <row r="1157" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1157"/>
     </row>
-    <row r="1158" spans="4:4">
+    <row r="1158" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1158"/>
     </row>
-    <row r="1159" spans="4:4">
+    <row r="1159" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1159"/>
     </row>
-    <row r="1160" spans="4:4">
+    <row r="1160" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1160"/>
     </row>
-    <row r="1161" spans="4:4">
+    <row r="1161" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1161"/>
     </row>
-    <row r="1162" spans="4:4">
+    <row r="1162" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1162"/>
     </row>
-    <row r="1163" spans="4:4">
+    <row r="1163" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1163"/>
     </row>
-    <row r="1164" spans="4:4">
+    <row r="1164" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1164"/>
     </row>
-    <row r="1165" spans="4:4">
+    <row r="1165" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1165"/>
     </row>
-    <row r="1166" spans="4:4">
+    <row r="1166" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1166"/>
     </row>
-    <row r="1167" spans="4:4">
+    <row r="1167" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1167"/>
     </row>
-    <row r="1168" spans="4:4">
+    <row r="1168" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1168"/>
     </row>
-    <row r="1169" spans="4:4">
+    <row r="1169" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1169"/>
     </row>
-    <row r="1170" spans="4:4">
+    <row r="1170" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1170"/>
     </row>
-    <row r="1171" spans="4:4">
+    <row r="1171" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1171"/>
     </row>
-    <row r="1172" spans="4:4">
+    <row r="1172" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1172"/>
     </row>
-    <row r="1173" spans="4:4">
+    <row r="1173" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1173"/>
     </row>
-    <row r="1174" spans="4:4">
+    <row r="1174" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1174"/>
     </row>
-    <row r="1175" spans="4:4">
+    <row r="1175" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1175"/>
     </row>
-    <row r="1176" spans="4:4">
+    <row r="1176" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1176"/>
     </row>
-    <row r="1177" spans="4:4">
+    <row r="1177" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1177"/>
     </row>
-    <row r="1178" spans="4:4">
+    <row r="1178" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1178"/>
     </row>
-    <row r="1179" spans="4:4">
+    <row r="1179" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1179"/>
     </row>
-    <row r="1180" spans="4:4">
+    <row r="1180" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1180"/>
     </row>
-    <row r="1181" spans="4:4">
+    <row r="1181" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1181"/>
     </row>
-    <row r="1182" spans="4:4">
+    <row r="1182" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1182"/>
     </row>
-    <row r="1183" spans="4:4">
+    <row r="1183" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1183"/>
     </row>
-    <row r="1184" spans="4:4">
+    <row r="1184" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1184"/>
     </row>
-    <row r="1185" spans="4:4">
+    <row r="1185" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1185"/>
     </row>
-    <row r="1186" spans="4:4">
+    <row r="1186" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1186"/>
     </row>
-    <row r="1187" spans="4:4">
+    <row r="1187" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1187"/>
     </row>
-    <row r="1188" spans="4:4">
+    <row r="1188" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1188"/>
     </row>
-    <row r="1189" spans="4:4">
+    <row r="1189" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1189"/>
     </row>
-    <row r="1190" spans="4:4">
+    <row r="1190" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1190"/>
     </row>
-    <row r="1191" spans="4:4">
+    <row r="1191" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1191"/>
     </row>
-    <row r="1192" spans="4:4">
+    <row r="1192" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1192"/>
     </row>
-    <row r="1193" spans="4:4">
+    <row r="1193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1193"/>
     </row>
-    <row r="1194" spans="4:4">
+    <row r="1194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1194"/>
     </row>
-    <row r="1195" spans="4:4">
+    <row r="1195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1195"/>
     </row>
-    <row r="1196" spans="4:4">
+    <row r="1196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1196"/>
     </row>
-    <row r="1197" spans="4:4">
+    <row r="1197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1197"/>
     </row>
-    <row r="1198" spans="4:4">
+    <row r="1198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1198"/>
     </row>
-    <row r="1199" spans="4:4">
+    <row r="1199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1199"/>
     </row>
-    <row r="1200" spans="4:4">
+    <row r="1200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1200"/>
     </row>
-    <row r="1201" spans="4:4">
+    <row r="1201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1201"/>
     </row>
-    <row r="1202" spans="4:4">
+    <row r="1202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1202"/>
     </row>
-    <row r="1203" spans="4:4">
+    <row r="1203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1203"/>
     </row>
-    <row r="1204" spans="4:4">
+    <row r="1204" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1204"/>
     </row>
-    <row r="1205" spans="4:4">
+    <row r="1205" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1205"/>
     </row>
-    <row r="1206" spans="4:4">
+    <row r="1206" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1206"/>
     </row>
-    <row r="1207" spans="4:4">
+    <row r="1207" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1207"/>
     </row>
-    <row r="1208" spans="4:4">
+    <row r="1208" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1208"/>
     </row>
-    <row r="1209" spans="4:4">
+    <row r="1209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1209"/>
     </row>
-    <row r="1210" spans="4:4">
+    <row r="1210" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1210"/>
     </row>
-    <row r="1211" spans="4:4">
+    <row r="1211" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1211"/>
     </row>
-    <row r="1212" spans="4:4">
+    <row r="1212" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1212"/>
     </row>
-    <row r="1213" spans="4:4">
+    <row r="1213" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1213"/>
     </row>
-    <row r="1214" spans="4:4">
+    <row r="1214" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1214"/>
     </row>
-    <row r="1215" spans="4:4">
+    <row r="1215" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1215"/>
     </row>
-    <row r="1216" spans="4:4">
+    <row r="1216" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1216"/>
     </row>
-    <row r="1217" spans="4:4">
+    <row r="1217" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1217"/>
     </row>
-    <row r="1218" spans="4:4">
+    <row r="1218" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1218"/>
     </row>
-    <row r="1219" spans="4:4">
+    <row r="1219" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1219"/>
     </row>
-    <row r="1220" spans="4:4">
+    <row r="1220" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1220"/>
     </row>
-    <row r="1221" spans="4:4">
+    <row r="1221" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1221"/>
     </row>
-    <row r="1222" spans="4:4">
+    <row r="1222" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1222"/>
     </row>
-    <row r="1223" spans="4:4">
+    <row r="1223" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1223"/>
     </row>
-    <row r="1224" spans="4:4">
+    <row r="1224" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1224"/>
     </row>
-    <row r="1225" spans="4:4">
+    <row r="1225" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1225"/>
     </row>
-    <row r="1226" spans="4:4">
+    <row r="1226" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1226"/>
     </row>
-    <row r="1227" spans="4:4">
+    <row r="1227" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1227"/>
     </row>
-    <row r="1228" spans="4:4">
+    <row r="1228" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1228"/>
     </row>
-    <row r="1229" spans="4:4">
+    <row r="1229" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1229"/>
     </row>
-    <row r="1230" spans="4:4">
+    <row r="1230" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1230"/>
     </row>
-    <row r="1231" spans="4:4">
+    <row r="1231" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1231"/>
     </row>
-    <row r="1232" spans="4:4">
+    <row r="1232" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1232"/>
     </row>
-    <row r="1233" spans="4:4">
+    <row r="1233" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1233"/>
     </row>
-    <row r="1234" spans="4:4">
+    <row r="1234" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1234"/>
     </row>
-    <row r="1235" spans="4:4">
+    <row r="1235" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1235"/>
     </row>
-    <row r="1236" spans="4:4">
+    <row r="1236" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1236"/>
     </row>
-    <row r="1237" spans="4:4">
+    <row r="1237" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1237"/>
     </row>
-    <row r="1238" spans="4:4">
+    <row r="1238" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1238"/>
     </row>
-    <row r="1239" spans="4:4">
+    <row r="1239" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1239"/>
     </row>
-    <row r="1240" spans="4:4">
+    <row r="1240" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1240"/>
     </row>
-    <row r="1241" spans="4:4">
+    <row r="1241" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1241"/>
     </row>
-    <row r="1242" spans="4:4">
+    <row r="1242" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1242"/>
     </row>
-    <row r="1243" spans="4:4">
+    <row r="1243" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1243"/>
     </row>
-    <row r="1244" spans="4:4">
+    <row r="1244" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1244"/>
     </row>
-    <row r="1245" spans="4:4">
+    <row r="1245" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1245"/>
     </row>
-    <row r="1246" spans="4:4">
+    <row r="1246" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1246"/>
     </row>
-    <row r="1247" spans="4:4">
+    <row r="1247" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1247"/>
     </row>
-    <row r="1248" spans="4:4">
+    <row r="1248" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1248"/>
     </row>
-    <row r="1249" spans="4:4">
+    <row r="1249" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1249"/>
     </row>
-    <row r="1250" spans="4:4">
+    <row r="1250" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1250"/>
     </row>
-    <row r="1251" spans="4:4">
+    <row r="1251" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1251"/>
     </row>
-    <row r="1252" spans="4:4">
+    <row r="1252" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1252"/>
     </row>
-    <row r="1253" spans="4:4">
+    <row r="1253" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1253"/>
     </row>
-    <row r="1254" spans="4:4">
+    <row r="1254" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1254"/>
     </row>
-    <row r="1255" spans="4:4">
+    <row r="1255" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1255"/>
     </row>
-    <row r="1256" spans="4:4">
+    <row r="1256" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1256"/>
     </row>
-    <row r="1257" spans="4:4">
+    <row r="1257" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1257"/>
     </row>
-    <row r="1258" spans="4:4">
+    <row r="1258" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1258"/>
     </row>
-    <row r="1259" spans="4:4">
+    <row r="1259" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1259"/>
     </row>
-    <row r="1260" spans="4:4">
+    <row r="1260" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1260"/>
     </row>
-    <row r="1261" spans="4:4">
+    <row r="1261" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1261"/>
     </row>
-    <row r="1262" spans="4:4">
+    <row r="1262" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1262"/>
     </row>
-    <row r="1263" spans="4:4">
+    <row r="1263" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1263"/>
     </row>
-    <row r="1264" spans="4:4">
+    <row r="1264" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1264"/>
     </row>
-    <row r="1265" spans="4:4">
+    <row r="1265" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1265"/>
     </row>
-    <row r="1266" spans="4:4">
+    <row r="1266" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1266"/>
     </row>
-    <row r="1267" spans="4:4">
+    <row r="1267" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1267"/>
     </row>
-    <row r="1268" spans="4:4">
+    <row r="1268" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1268"/>
     </row>
-    <row r="1269" spans="4:4">
+    <row r="1269" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1269"/>
     </row>
-    <row r="1270" spans="4:4">
+    <row r="1270" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1270"/>
     </row>
-    <row r="1271" spans="4:4">
+    <row r="1271" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1271"/>
     </row>
-    <row r="1272" spans="4:4">
+    <row r="1272" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1272"/>
     </row>
-    <row r="1273" spans="4:4">
+    <row r="1273" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1273"/>
     </row>
-    <row r="1274" spans="4:4">
+    <row r="1274" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1274"/>
     </row>
-    <row r="1275" spans="4:4">
+    <row r="1275" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1275"/>
     </row>
-    <row r="1276" spans="4:4">
+    <row r="1276" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1276"/>
     </row>
-    <row r="1277" spans="4:4">
+    <row r="1277" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1277"/>
     </row>
-    <row r="1278" spans="4:4">
+    <row r="1278" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1278"/>
     </row>
-    <row r="1279" spans="4:4">
+    <row r="1279" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1279"/>
     </row>
-    <row r="1280" spans="4:4">
+    <row r="1280" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1280"/>
     </row>
-    <row r="1281" spans="4:4">
+    <row r="1281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1281"/>
     </row>
-    <row r="1282" spans="4:4">
+    <row r="1282" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1282"/>
     </row>
-    <row r="1283" spans="4:4">
+    <row r="1283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1283"/>
     </row>
-    <row r="1284" spans="4:4">
+    <row r="1284" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1284"/>
     </row>
-    <row r="1285" spans="4:4">
+    <row r="1285" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1285"/>
     </row>
-    <row r="1286" spans="4:4">
+    <row r="1286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1286"/>
     </row>
-    <row r="1287" spans="4:4">
+    <row r="1287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1287"/>
     </row>
-    <row r="1288" spans="4:4">
+    <row r="1288" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1288"/>
     </row>
-    <row r="1289" spans="4:4">
+    <row r="1289" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1289"/>
     </row>
-    <row r="1290" spans="4:4">
+    <row r="1290" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1290"/>
     </row>
-    <row r="1291" spans="4:4">
+    <row r="1291" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1291"/>
     </row>
-    <row r="1292" spans="4:4">
+    <row r="1292" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1292"/>
     </row>
-    <row r="1293" spans="4:4">
+    <row r="1293" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1293"/>
     </row>
-    <row r="1294" spans="4:4">
+    <row r="1294" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1294"/>
     </row>
-    <row r="1295" spans="4:4">
+    <row r="1295" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1295"/>
     </row>
-    <row r="1296" spans="4:4">
+    <row r="1296" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1296"/>
     </row>
-    <row r="1297" spans="4:4">
+    <row r="1297" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1297"/>
     </row>
-    <row r="1298" spans="4:4">
+    <row r="1298" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1298"/>
     </row>
-    <row r="1299" spans="4:4">
+    <row r="1299" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1299"/>
     </row>
-    <row r="1300" spans="4:4">
+    <row r="1300" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1300"/>
     </row>
-    <row r="1301" spans="4:4">
+    <row r="1301" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1301"/>
     </row>
-    <row r="1302" spans="4:4">
+    <row r="1302" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1302"/>
     </row>
-    <row r="1303" spans="4:4">
+    <row r="1303" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1303"/>
     </row>
-    <row r="1304" spans="4:4">
+    <row r="1304" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1304"/>
     </row>
-    <row r="1305" spans="4:4">
+    <row r="1305" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1305"/>
     </row>
-    <row r="1306" spans="4:4">
+    <row r="1306" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1306"/>
     </row>
-    <row r="1307" spans="4:4">
+    <row r="1307" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1307"/>
     </row>
-    <row r="1308" spans="4:4">
+    <row r="1308" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1308"/>
     </row>
-    <row r="1309" spans="4:4">
+    <row r="1309" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1309"/>
     </row>
-    <row r="1310" spans="4:4">
+    <row r="1310" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1310"/>
     </row>
-    <row r="1311" spans="4:4">
+    <row r="1311" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1311"/>
     </row>
-    <row r="1312" spans="4:4">
+    <row r="1312" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1312"/>
     </row>
-    <row r="1313" spans="4:4">
+    <row r="1313" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1313"/>
     </row>
-    <row r="1314" spans="4:4">
+    <row r="1314" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1314"/>
     </row>
-    <row r="1315" spans="4:4">
+    <row r="1315" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1315"/>
     </row>
-    <row r="1316" spans="4:4">
+    <row r="1316" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1316"/>
     </row>
-    <row r="1317" spans="4:4">
+    <row r="1317" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1317"/>
     </row>
-    <row r="1318" spans="4:4">
+    <row r="1318" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1318"/>
     </row>
-    <row r="1319" spans="4:4">
+    <row r="1319" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1319"/>
     </row>
-    <row r="1320" spans="4:4">
+    <row r="1320" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1320"/>
     </row>
-    <row r="1321" spans="4:4">
+    <row r="1321" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1321"/>
     </row>
-    <row r="1322" spans="4:4">
+    <row r="1322" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1322"/>
     </row>
-    <row r="1323" spans="4:4">
+    <row r="1323" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1323"/>
     </row>
-    <row r="1324" spans="4:4">
+    <row r="1324" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1324"/>
     </row>
-    <row r="1325" spans="4:4">
+    <row r="1325" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1325"/>
     </row>
-    <row r="1326" spans="4:4">
+    <row r="1326" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1326"/>
     </row>
-    <row r="1327" spans="4:4">
+    <row r="1327" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1327"/>
     </row>
-    <row r="1328" spans="4:4">
+    <row r="1328" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1328"/>
     </row>
-    <row r="1329" spans="4:4">
+    <row r="1329" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1329"/>
     </row>
-    <row r="1330" spans="4:4">
+    <row r="1330" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1330"/>
     </row>
-    <row r="1331" spans="4:4">
+    <row r="1331" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1331"/>
     </row>
-    <row r="1332" spans="4:4">
+    <row r="1332" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1332"/>
     </row>
-    <row r="1333" spans="4:4">
+    <row r="1333" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1333"/>
     </row>
-    <row r="1334" spans="4:4">
+    <row r="1334" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1334"/>
     </row>
-    <row r="1335" spans="4:4">
+    <row r="1335" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1335"/>
     </row>
-    <row r="1336" spans="4:4">
+    <row r="1336" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1336"/>
     </row>
-    <row r="1337" spans="4:4">
+    <row r="1337" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1337"/>
     </row>
-    <row r="1338" spans="4:4">
+    <row r="1338" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1338"/>
     </row>
-    <row r="1339" spans="4:4">
+    <row r="1339" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1339"/>
     </row>
-    <row r="1340" spans="4:4">
+    <row r="1340" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1340"/>
     </row>
-    <row r="1341" spans="4:4">
+    <row r="1341" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1341"/>
     </row>
-    <row r="1342" spans="4:4">
+    <row r="1342" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1342"/>
     </row>
-    <row r="1343" spans="4:4">
+    <row r="1343" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1343"/>
     </row>
-    <row r="1344" spans="4:4">
+    <row r="1344" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1344"/>
     </row>
-    <row r="1345" spans="4:4">
+    <row r="1345" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1345"/>
     </row>
-    <row r="1346" spans="4:4">
+    <row r="1346" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1346"/>
     </row>
-    <row r="1347" spans="4:4">
+    <row r="1347" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1347"/>
     </row>
-    <row r="1348" spans="4:4">
+    <row r="1348" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1348"/>
     </row>
-    <row r="1349" spans="4:4">
+    <row r="1349" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1349"/>
     </row>
-    <row r="1350" spans="4:4">
+    <row r="1350" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1350"/>
     </row>
-    <row r="1351" spans="4:4">
+    <row r="1351" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1351"/>
     </row>
-    <row r="1352" spans="4:4">
+    <row r="1352" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1352"/>
     </row>
-    <row r="1353" spans="4:4">
+    <row r="1353" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1353"/>
     </row>
-    <row r="1354" spans="4:4">
+    <row r="1354" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1354"/>
     </row>
-    <row r="1355" spans="4:4">
+    <row r="1355" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1355"/>
     </row>
-    <row r="1356" spans="4:4">
+    <row r="1356" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1356"/>
     </row>
-    <row r="1357" spans="4:4">
+    <row r="1357" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1357"/>
     </row>
-    <row r="1358" spans="4:4">
+    <row r="1358" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1358"/>
     </row>
-    <row r="1359" spans="4:4">
+    <row r="1359" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1359"/>
     </row>
-    <row r="1360" spans="4:4">
+    <row r="1360" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1360"/>
     </row>
-    <row r="1361" spans="4:4">
+    <row r="1361" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1361"/>
     </row>
-    <row r="1362" spans="4:4">
+    <row r="1362" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1362"/>
     </row>
-    <row r="1363" spans="4:4">
+    <row r="1363" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1363"/>
     </row>
-    <row r="1364" spans="4:4">
+    <row r="1364" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1364"/>
     </row>
-    <row r="1365" spans="4:4">
+    <row r="1365" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1365"/>
     </row>
-    <row r="1366" spans="4:4">
+    <row r="1366" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1366"/>
     </row>
-    <row r="1367" spans="4:4">
+    <row r="1367" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1367"/>
     </row>
-    <row r="1368" spans="4:4">
+    <row r="1368" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1368"/>
     </row>
-    <row r="1369" spans="4:4">
+    <row r="1369" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1369"/>
     </row>
-    <row r="1370" spans="4:4">
+    <row r="1370" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1370"/>
     </row>
-    <row r="1371" spans="4:4">
+    <row r="1371" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1371"/>
     </row>
-    <row r="1372" spans="4:4">
+    <row r="1372" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1372"/>
     </row>
-    <row r="1373" spans="4:4">
+    <row r="1373" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1373"/>
     </row>
-    <row r="1374" spans="4:4">
+    <row r="1374" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1374"/>
     </row>
-    <row r="1375" spans="4:4">
+    <row r="1375" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1375"/>
     </row>
-    <row r="1376" spans="4:4">
+    <row r="1376" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1376"/>
     </row>
-    <row r="1377" spans="4:4">
+    <row r="1377" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1377"/>
     </row>
-    <row r="1378" spans="4:4">
+    <row r="1378" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1378"/>
     </row>
-    <row r="1379" spans="4:4">
+    <row r="1379" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1379"/>
     </row>
-    <row r="1380" spans="4:4">
+    <row r="1380" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1380"/>
     </row>
-    <row r="1381" spans="4:4">
+    <row r="1381" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1381"/>
     </row>
-    <row r="1382" spans="4:4">
+    <row r="1382" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1382"/>
     </row>
-    <row r="1383" spans="4:4">
+    <row r="1383" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1383"/>
     </row>
-    <row r="1384" spans="4:4">
+    <row r="1384" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1384"/>
     </row>
-    <row r="1385" spans="4:4">
+    <row r="1385" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1385"/>
     </row>
-    <row r="1386" spans="4:4">
+    <row r="1386" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1386"/>
     </row>
-    <row r="1387" spans="4:4">
+    <row r="1387" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1387"/>
     </row>
-    <row r="1388" spans="4:4">
+    <row r="1388" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1388"/>
     </row>
-    <row r="1389" spans="4:4">
+    <row r="1389" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1389"/>
     </row>
-    <row r="1390" spans="4:4">
+    <row r="1390" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1390"/>
     </row>
-    <row r="1391" spans="4:4">
+    <row r="1391" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1391"/>
     </row>
-    <row r="1392" spans="4:4">
+    <row r="1392" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1392"/>
     </row>
-    <row r="1393" spans="4:4">
+    <row r="1393" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1393"/>
     </row>
-    <row r="1394" spans="4:4">
+    <row r="1394" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1394"/>
     </row>
-    <row r="1395" spans="4:4">
+    <row r="1395" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1395"/>
     </row>
-    <row r="1396" spans="4:4">
+    <row r="1396" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1396"/>
     </row>
-    <row r="1397" spans="4:4">
+    <row r="1397" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1397"/>
     </row>
-    <row r="1398" spans="4:4">
+    <row r="1398" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1398"/>
     </row>
-    <row r="1399" spans="4:4">
+    <row r="1399" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1399"/>
     </row>
-    <row r="1400" spans="4:4">
+    <row r="1400" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1400"/>
     </row>
-    <row r="1401" spans="4:4">
+    <row r="1401" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1401"/>
     </row>
-    <row r="1402" spans="4:4">
+    <row r="1402" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1402"/>
     </row>
-    <row r="1403" spans="4:4">
+    <row r="1403" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1403"/>
     </row>
-    <row r="1404" spans="4:4">
+    <row r="1404" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1404"/>
     </row>
-    <row r="1405" spans="4:4">
+    <row r="1405" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1405"/>
     </row>
-    <row r="1406" spans="4:4">
+    <row r="1406" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1406"/>
     </row>
-    <row r="1407" spans="4:4">
+    <row r="1407" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1407"/>
     </row>
-    <row r="1408" spans="4:4">
+    <row r="1408" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1408"/>
     </row>
-    <row r="1409" spans="4:4">
+    <row r="1409" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1409"/>
     </row>
-    <row r="1410" spans="4:4">
+    <row r="1410" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1410"/>
     </row>
-    <row r="1411" spans="4:4">
+    <row r="1411" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1411"/>
     </row>
-    <row r="1412" spans="4:4">
+    <row r="1412" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1412"/>
     </row>
-    <row r="1413" spans="4:4">
+    <row r="1413" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1413"/>
     </row>
-    <row r="1414" spans="4:4">
+    <row r="1414" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1414"/>
     </row>
-    <row r="1415" spans="4:4">
+    <row r="1415" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1415"/>
     </row>
-    <row r="1416" spans="4:4">
+    <row r="1416" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1416"/>
     </row>
-    <row r="1417" spans="4:4">
+    <row r="1417" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1417"/>
     </row>
-    <row r="1418" spans="4:4">
+    <row r="1418" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1418"/>
     </row>
-    <row r="1419" spans="4:4">
+    <row r="1419" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1419"/>
     </row>
-    <row r="1420" spans="4:4">
+    <row r="1420" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1420"/>
     </row>
-    <row r="1421" spans="4:4">
+    <row r="1421" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1421"/>
     </row>
-    <row r="1422" spans="4:4">
+    <row r="1422" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1422"/>
     </row>
-    <row r="1423" spans="4:4">
+    <row r="1423" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1423"/>
     </row>
-    <row r="1424" spans="4:4">
+    <row r="1424" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1424"/>
     </row>
-    <row r="1425" spans="4:4">
+    <row r="1425" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1425"/>
     </row>
-    <row r="1426" spans="4:4">
+    <row r="1426" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1426"/>
     </row>
-    <row r="1427" spans="4:4">
+    <row r="1427" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1427"/>
     </row>
-    <row r="1428" spans="4:4">
+    <row r="1428" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1428"/>
     </row>
-    <row r="1429" spans="4:4">
+    <row r="1429" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1429"/>
     </row>
-    <row r="1430" spans="4:4">
+    <row r="1430" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1430"/>
     </row>
-    <row r="1431" spans="4:4">
+    <row r="1431" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1431"/>
     </row>
-    <row r="1432" spans="4:4">
+    <row r="1432" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1432"/>
     </row>
-    <row r="1433" spans="4:4">
+    <row r="1433" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1433"/>
     </row>
-    <row r="1434" spans="4:4">
+    <row r="1434" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1434"/>
     </row>
-    <row r="1435" spans="4:4">
+    <row r="1435" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1435"/>
     </row>
-    <row r="1436" spans="4:4">
+    <row r="1436" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1436"/>
     </row>
-    <row r="1437" spans="4:4">
+    <row r="1437" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1437"/>
     </row>
-    <row r="1438" spans="4:4">
+    <row r="1438" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1438"/>
     </row>
-    <row r="1439" spans="4:4">
+    <row r="1439" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1439"/>
     </row>
-    <row r="1440" spans="4:4">
+    <row r="1440" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1440"/>
     </row>
-    <row r="1441" spans="4:4">
+    <row r="1441" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1441"/>
     </row>
-    <row r="1442" spans="4:4">
+    <row r="1442" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1442"/>
     </row>
-    <row r="1443" spans="4:4">
+    <row r="1443" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1443"/>
     </row>
-    <row r="1444" spans="4:4">
+    <row r="1444" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1444"/>
     </row>
-    <row r="1445" spans="4:4">
+    <row r="1445" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1445"/>
     </row>
-    <row r="1446" spans="4:4">
+    <row r="1446" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1446"/>
     </row>
-    <row r="1447" spans="4:4">
+    <row r="1447" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1447"/>
     </row>
-    <row r="1448" spans="4:4">
+    <row r="1448" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1448"/>
     </row>
-    <row r="1449" spans="4:4">
+    <row r="1449" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1449"/>
     </row>
-    <row r="1450" spans="4:4">
+    <row r="1450" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1450"/>
     </row>
-    <row r="1451" spans="4:4">
+    <row r="1451" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1451"/>
     </row>
-    <row r="1452" spans="4:4">
+    <row r="1452" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1452"/>
     </row>
-    <row r="1453" spans="4:4">
+    <row r="1453" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1453"/>
     </row>
-    <row r="1454" spans="4:4">
+    <row r="1454" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1454"/>
     </row>
-    <row r="1455" spans="4:4">
+    <row r="1455" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1455"/>
     </row>
-    <row r="1456" spans="4:4">
+    <row r="1456" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1456"/>
     </row>
-    <row r="1457" spans="4:4">
+    <row r="1457" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1457"/>
     </row>
-    <row r="1458" spans="4:4">
+    <row r="1458" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1458"/>
     </row>
-    <row r="1459" spans="4:4">
+    <row r="1459" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1459"/>
     </row>
-    <row r="1460" spans="4:4">
+    <row r="1460" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1460"/>
     </row>
-    <row r="1461" spans="4:4">
+    <row r="1461" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1461"/>
     </row>
-    <row r="1462" spans="4:4">
+    <row r="1462" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1462"/>
     </row>
-    <row r="1463" spans="4:4">
+    <row r="1463" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1463"/>
     </row>
-    <row r="1464" spans="4:4">
+    <row r="1464" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1464"/>
     </row>
-    <row r="1465" spans="4:4">
+    <row r="1465" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1465"/>
     </row>
-    <row r="1466" spans="4:4">
+    <row r="1466" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1466"/>
     </row>
-    <row r="1467" spans="4:4">
+    <row r="1467" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1467"/>
     </row>
-    <row r="1468" spans="4:4">
+    <row r="1468" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1468"/>
     </row>
-    <row r="1469" spans="4:4">
+    <row r="1469" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1469"/>
     </row>
-    <row r="1470" spans="4:4">
+    <row r="1470" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1470"/>
     </row>
-    <row r="1471" spans="4:4">
+    <row r="1471" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1471"/>
     </row>
-    <row r="1472" spans="4:4">
+    <row r="1472" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1472"/>
     </row>
-    <row r="1473" spans="4:4">
+    <row r="1473" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1473"/>
     </row>
-    <row r="1474" spans="4:4">
+    <row r="1474" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1474"/>
     </row>
-    <row r="1475" spans="4:4">
+    <row r="1475" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1475"/>
     </row>
-    <row r="1476" spans="4:4">
+    <row r="1476" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1476"/>
     </row>
-    <row r="1477" spans="4:4">
+    <row r="1477" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1477"/>
     </row>
-    <row r="1478" spans="4:4">
+    <row r="1478" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1478"/>
     </row>
-    <row r="1479" spans="4:4">
+    <row r="1479" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1479"/>
     </row>
-    <row r="1480" spans="4:4">
+    <row r="1480" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1480"/>
     </row>
-    <row r="1481" spans="4:4">
+    <row r="1481" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1481"/>
     </row>
-    <row r="1482" spans="4:4">
+    <row r="1482" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1482"/>
     </row>
-    <row r="1483" spans="4:4">
+    <row r="1483" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1483"/>
     </row>
-    <row r="1484" spans="4:4">
+    <row r="1484" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1484"/>
     </row>
-    <row r="1485" spans="4:4">
+    <row r="1485" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1485"/>
     </row>
-    <row r="1486" spans="4:4">
+    <row r="1486" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1486"/>
     </row>
-    <row r="1487" spans="4:4">
+    <row r="1487" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1487"/>
     </row>
-    <row r="1488" spans="4:4">
+    <row r="1488" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1488"/>
     </row>
-    <row r="1489" spans="4:4">
+    <row r="1489" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1489"/>
     </row>
-    <row r="1490" spans="4:4">
+    <row r="1490" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1490"/>
     </row>
-    <row r="1491" spans="4:4">
+    <row r="1491" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1491"/>
     </row>
-    <row r="1492" spans="4:4">
+    <row r="1492" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1492"/>
     </row>
-    <row r="1493" spans="4:4">
+    <row r="1493" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1493"/>
     </row>
-    <row r="1494" spans="4:4">
+    <row r="1494" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1494"/>
     </row>
-    <row r="1495" spans="4:4">
+    <row r="1495" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1495"/>
     </row>
-    <row r="1496" spans="4:4">
+    <row r="1496" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1496"/>
     </row>
-    <row r="1497" spans="4:4">
+    <row r="1497" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1497"/>
     </row>
-    <row r="1498" spans="4:4">
+    <row r="1498" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1498"/>
     </row>
-    <row r="1499" spans="4:4">
+    <row r="1499" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1499"/>
     </row>
-    <row r="1500" spans="4:4">
+    <row r="1500" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1500"/>
     </row>
-    <row r="1501" spans="4:4">
+    <row r="1501" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1501"/>
     </row>
-    <row r="1502" spans="4:4">
+    <row r="1502" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1502"/>
     </row>
-    <row r="1503" spans="4:4">
+    <row r="1503" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1503"/>
     </row>
-    <row r="1504" spans="4:4">
+    <row r="1504" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1504"/>
     </row>
-    <row r="1505" spans="4:4">
+    <row r="1505" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1505"/>
     </row>
-    <row r="1506" spans="4:4">
+    <row r="1506" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1506"/>
     </row>
-    <row r="1507" spans="4:4">
+    <row r="1507" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1507"/>
     </row>
-    <row r="1508" spans="4:4">
+    <row r="1508" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1508"/>
     </row>
-    <row r="1509" spans="4:4">
+    <row r="1509" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1509"/>
     </row>
-    <row r="1510" spans="4:4">
+    <row r="1510" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1510"/>
     </row>
-    <row r="1511" spans="4:4">
+    <row r="1511" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1511"/>
     </row>
-    <row r="1512" spans="4:4">
+    <row r="1512" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1512"/>
     </row>
-    <row r="1513" spans="4:4">
+    <row r="1513" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1513"/>
     </row>
-    <row r="1514" spans="4:4">
+    <row r="1514" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1514"/>
     </row>
-    <row r="1515" spans="4:4">
+    <row r="1515" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1515"/>
     </row>
-    <row r="1516" spans="4:4">
+    <row r="1516" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1516"/>
     </row>
-    <row r="1517" spans="4:4">
+    <row r="1517" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1517"/>
     </row>
-    <row r="1518" spans="4:4">
+    <row r="1518" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1518"/>
     </row>
-    <row r="1519" spans="4:4">
+    <row r="1519" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1519"/>
     </row>
-    <row r="1520" spans="4:4">
+    <row r="1520" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1520"/>
     </row>
-    <row r="1521" spans="4:4">
+    <row r="1521" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1521"/>
     </row>
-    <row r="1522" spans="4:4">
+    <row r="1522" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1522"/>
     </row>
-    <row r="1523" spans="4:4">
+    <row r="1523" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1523"/>
     </row>
-    <row r="1524" spans="4:4">
+    <row r="1524" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1524"/>
     </row>
-    <row r="1525" spans="4:4">
+    <row r="1525" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1525"/>
     </row>
-    <row r="1526" spans="4:4">
+    <row r="1526" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1526"/>
     </row>
-    <row r="1527" spans="4:4">
+    <row r="1527" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1527"/>
     </row>
-    <row r="1528" spans="4:4">
+    <row r="1528" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1528"/>
     </row>
-    <row r="1529" spans="4:4">
+    <row r="1529" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1529"/>
     </row>
-    <row r="1530" spans="4:4">
+    <row r="1530" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1530"/>
     </row>
-    <row r="1531" spans="4:4">
+    <row r="1531" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1531"/>
     </row>
-    <row r="1532" spans="4:4">
+    <row r="1532" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1532"/>
     </row>
-    <row r="1533" spans="4:4">
+    <row r="1533" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1533"/>
     </row>
-    <row r="1534" spans="4:4">
+    <row r="1534" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1534"/>
     </row>
-    <row r="1535" spans="4:4">
+    <row r="1535" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1535"/>
     </row>
-    <row r="1536" spans="4:4">
+    <row r="1536" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1536"/>
     </row>
-    <row r="1537" spans="4:4">
+    <row r="1537" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1537"/>
     </row>
-    <row r="1538" spans="4:4">
+    <row r="1538" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1538"/>
     </row>
-    <row r="1539" spans="4:4">
+    <row r="1539" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1539"/>
     </row>
-    <row r="1540" spans="4:4">
+    <row r="1540" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1540"/>
     </row>
-    <row r="1541" spans="4:4">
+    <row r="1541" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1541"/>
     </row>
-    <row r="1542" spans="4:4">
+    <row r="1542" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1542"/>
     </row>
-    <row r="1543" spans="4:4">
+    <row r="1543" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1543"/>
     </row>
-    <row r="1544" spans="4:4">
+    <row r="1544" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1544"/>
     </row>
-    <row r="1545" spans="4:4">
+    <row r="1545" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1545"/>
     </row>
-    <row r="1546" spans="4:4">
+    <row r="1546" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1546"/>
     </row>
-    <row r="1547" spans="4:4">
+    <row r="1547" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1547"/>
     </row>
-    <row r="1548" spans="4:4">
+    <row r="1548" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1548"/>
     </row>
-    <row r="1549" spans="4:4">
+    <row r="1549" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1549"/>
     </row>
-    <row r="1550" spans="4:4">
+    <row r="1550" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1550"/>
     </row>
-    <row r="1551" spans="4:4">
+    <row r="1551" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1551"/>
     </row>
-    <row r="1552" spans="4:4">
+    <row r="1552" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1552"/>
     </row>
-    <row r="1553" spans="4:4">
+    <row r="1553" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1553"/>
     </row>
-    <row r="1554" spans="4:4">
+    <row r="1554" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1554"/>
     </row>
-    <row r="1555" spans="4:4">
+    <row r="1555" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1555"/>
     </row>
-    <row r="1556" spans="4:4">
+    <row r="1556" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1556"/>
     </row>
-    <row r="1557" spans="4:4">
+    <row r="1557" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1557"/>
     </row>
-    <row r="1558" spans="4:4">
+    <row r="1558" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1558"/>
     </row>
-    <row r="1559" spans="4:4">
+    <row r="1559" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1559"/>
     </row>
-    <row r="1560" spans="4:4">
+    <row r="1560" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1560"/>
     </row>
-    <row r="1561" spans="4:4">
+    <row r="1561" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1561"/>
     </row>
-    <row r="1562" spans="4:4">
+    <row r="1562" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1562"/>
     </row>
-    <row r="1563" spans="4:4">
+    <row r="1563" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1563"/>
     </row>
-    <row r="1564" spans="4:4">
+    <row r="1564" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1564"/>
     </row>
-    <row r="1565" spans="4:4">
+    <row r="1565" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1565"/>
     </row>
-    <row r="1566" spans="4:4">
+    <row r="1566" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1566"/>
     </row>
-    <row r="1567" spans="4:4">
+    <row r="1567" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1567"/>
     </row>
-    <row r="1568" spans="4:4">
+    <row r="1568" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1568"/>
     </row>
-    <row r="1569" spans="4:4">
+    <row r="1569" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1569"/>
     </row>
-    <row r="1570" spans="4:4">
+    <row r="1570" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1570"/>
     </row>
-    <row r="1571" spans="4:4">
+    <row r="1571" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1571"/>
     </row>
-    <row r="1572" spans="4:4">
+    <row r="1572" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1572"/>
     </row>
-    <row r="1573" spans="4:4">
+    <row r="1573" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1573"/>
     </row>
-    <row r="1574" spans="4:4">
+    <row r="1574" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1574"/>
     </row>
-    <row r="1575" spans="4:4">
+    <row r="1575" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1575"/>
     </row>
-    <row r="1576" spans="4:4">
+    <row r="1576" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1576"/>
     </row>
-    <row r="1577" spans="4:4">
+    <row r="1577" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1577"/>
     </row>
-    <row r="1578" spans="4:4">
+    <row r="1578" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1578"/>
     </row>
-    <row r="1579" spans="4:4">
+    <row r="1579" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1579"/>
     </row>
-    <row r="1580" spans="4:4">
+    <row r="1580" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1580"/>
     </row>
-    <row r="1581" spans="4:4">
+    <row r="1581" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1581"/>
     </row>
-    <row r="1582" spans="4:4">
+    <row r="1582" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1582"/>
     </row>
-    <row r="1583" spans="4:4">
+    <row r="1583" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1583"/>
     </row>
-    <row r="1584" spans="4:4">
+    <row r="1584" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1584"/>
     </row>
-    <row r="1585" spans="4:4">
+    <row r="1585" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1585"/>
     </row>
-    <row r="1586" spans="4:4">
+    <row r="1586" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1586"/>
     </row>
-    <row r="1587" spans="4:4">
+    <row r="1587" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1587"/>
     </row>
-    <row r="1588" spans="4:4">
+    <row r="1588" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1588"/>
     </row>
-    <row r="1589" spans="4:4">
+    <row r="1589" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1589"/>
     </row>
-    <row r="1590" spans="4:4">
+    <row r="1590" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1590"/>
     </row>
-    <row r="1591" spans="4:4">
+    <row r="1591" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1591"/>
     </row>
-    <row r="1592" spans="4:4">
+    <row r="1592" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1592"/>
     </row>
-    <row r="1593" spans="4:4">
+    <row r="1593" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1593"/>
     </row>
-    <row r="1594" spans="4:4">
+    <row r="1594" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1594"/>
     </row>
-    <row r="1595" spans="4:4">
+    <row r="1595" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1595"/>
     </row>
-    <row r="1596" spans="4:4">
+    <row r="1596" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1596"/>
     </row>
-    <row r="1597" spans="4:4">
+    <row r="1597" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1597"/>
     </row>
-    <row r="1598" spans="4:4">
+    <row r="1598" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1598"/>
     </row>
-    <row r="1599" spans="4:4">
+    <row r="1599" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1599"/>
     </row>
-    <row r="1600" spans="4:4">
+    <row r="1600" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1600"/>
     </row>
-    <row r="1601" spans="4:4">
+    <row r="1601" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1601"/>
     </row>
-    <row r="1602" spans="4:4">
+    <row r="1602" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1602"/>
     </row>
-    <row r="1603" spans="4:4">
+    <row r="1603" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1603"/>
     </row>
-    <row r="1604" spans="4:4">
+    <row r="1604" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1604"/>
     </row>
-    <row r="1605" spans="4:4">
+    <row r="1605" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1605"/>
     </row>
-    <row r="1606" spans="4:4">
+    <row r="1606" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1606"/>
     </row>
-    <row r="1607" spans="4:4">
+    <row r="1607" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1607"/>
     </row>
-    <row r="1608" spans="4:4">
+    <row r="1608" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1608"/>
     </row>
-    <row r="1609" spans="4:4">
+    <row r="1609" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1609"/>
     </row>
-    <row r="1610" spans="4:4">
+    <row r="1610" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1610"/>
     </row>
-    <row r="1611" spans="4:4">
+    <row r="1611" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1611"/>
     </row>
-    <row r="1612" spans="4:4">
+    <row r="1612" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1612"/>
     </row>
-    <row r="1613" spans="4:4">
+    <row r="1613" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1613"/>
     </row>
-    <row r="1614" spans="4:4">
+    <row r="1614" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1614"/>
     </row>
-    <row r="1615" spans="4:4">
+    <row r="1615" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1615"/>
     </row>
-    <row r="1616" spans="4:4">
+    <row r="1616" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1616"/>
     </row>
-    <row r="1617" spans="4:4">
+    <row r="1617" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1617"/>
     </row>
-    <row r="1618" spans="4:4">
+    <row r="1618" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1618"/>
     </row>
-    <row r="1619" spans="4:4">
+    <row r="1619" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1619"/>
     </row>
-    <row r="1620" spans="4:4">
+    <row r="1620" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1620"/>
     </row>
-    <row r="1621" spans="4:4">
+    <row r="1621" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1621"/>
     </row>
-    <row r="1622" spans="4:4">
+    <row r="1622" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1622"/>
     </row>
-    <row r="1623" spans="4:4">
+    <row r="1623" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1623"/>
     </row>
-    <row r="1624" spans="4:4">
+    <row r="1624" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1624"/>
     </row>
-    <row r="1625" spans="4:4">
+    <row r="1625" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1625"/>
     </row>
-    <row r="1626" spans="4:4">
+    <row r="1626" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1626"/>
     </row>
-    <row r="1627" spans="4:4">
+    <row r="1627" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1627"/>
     </row>
-    <row r="1628" spans="4:4">
+    <row r="1628" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1628"/>
     </row>
-    <row r="1629" spans="4:4">
+    <row r="1629" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1629"/>
     </row>
-    <row r="1630" spans="4:4">
+    <row r="1630" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1630"/>
     </row>
-    <row r="1631" spans="4:4">
+    <row r="1631" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1631"/>
     </row>
-    <row r="1632" spans="4:4">
+    <row r="1632" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1632"/>
     </row>
-    <row r="1633" spans="4:4">
+    <row r="1633" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1633"/>
     </row>
-    <row r="1634" spans="4:4">
+    <row r="1634" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1634"/>
     </row>
-    <row r="1635" spans="4:4">
+    <row r="1635" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1635"/>
     </row>
-    <row r="1636" spans="4:4">
+    <row r="1636" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1636"/>
     </row>
-    <row r="1637" spans="4:4">
+    <row r="1637" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1637"/>
     </row>
-    <row r="1638" spans="4:4">
+    <row r="1638" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1638"/>
     </row>
-    <row r="1639" spans="4:4">
+    <row r="1639" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1639"/>
     </row>
-    <row r="1640" spans="4:4">
+    <row r="1640" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1640"/>
     </row>
-    <row r="1641" spans="4:4">
+    <row r="1641" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1641"/>
     </row>
-    <row r="1642" spans="4:4">
+    <row r="1642" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1642"/>
     </row>
-    <row r="1643" spans="4:4">
+    <row r="1643" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1643"/>
     </row>
-    <row r="1644" spans="4:4">
+    <row r="1644" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1644"/>
     </row>
-    <row r="1645" spans="4:4">
+    <row r="1645" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1645"/>
     </row>
-    <row r="1646" spans="4:4">
+    <row r="1646" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1646"/>
     </row>
-    <row r="1647" spans="4:4">
+    <row r="1647" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1647"/>
     </row>
-    <row r="1648" spans="4:4">
+    <row r="1648" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1648"/>
     </row>
-    <row r="1649" spans="4:4">
+    <row r="1649" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1649"/>
     </row>
-    <row r="1650" spans="4:4">
+    <row r="1650" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1650"/>
     </row>
-    <row r="1651" spans="4:4">
+    <row r="1651" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1651"/>
     </row>
-    <row r="1652" spans="4:4">
+    <row r="1652" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1652"/>
     </row>
-    <row r="1653" spans="4:4">
+    <row r="1653" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1653"/>
     </row>
-    <row r="1654" spans="4:4">
+    <row r="1654" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1654"/>
     </row>
-    <row r="1655" spans="4:4">
+    <row r="1655" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1655"/>
     </row>
-    <row r="1656" spans="4:4">
+    <row r="1656" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1656"/>
     </row>
-    <row r="1657" spans="4:4">
+    <row r="1657" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1657"/>
     </row>
-    <row r="1658" spans="4:4">
+    <row r="1658" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1658"/>
     </row>
-    <row r="1659" spans="4:4">
+    <row r="1659" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1659"/>
     </row>
-    <row r="1660" spans="4:4">
+    <row r="1660" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1660"/>
     </row>
-    <row r="1661" spans="4:4">
+    <row r="1661" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1661"/>
     </row>
-    <row r="1662" spans="4:4">
+    <row r="1662" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1662"/>
     </row>
-    <row r="1663" spans="4:4">
+    <row r="1663" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1663"/>
     </row>
-    <row r="1664" spans="4:4">
+    <row r="1664" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1664"/>
     </row>
-    <row r="1665" spans="4:4">
+    <row r="1665" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1665"/>
     </row>
-    <row r="1666" spans="4:4">
+    <row r="1666" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1666"/>
     </row>
-    <row r="1667" spans="4:4">
+    <row r="1667" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1667"/>
     </row>
-    <row r="1668" spans="4:4">
+    <row r="1668" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1668"/>
     </row>
-    <row r="1669" spans="4:4">
+    <row r="1669" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1669"/>
     </row>
-    <row r="1670" spans="4:4">
+    <row r="1670" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1670"/>
     </row>
-    <row r="1671" spans="4:4">
+    <row r="1671" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1671"/>
     </row>
-    <row r="1672" spans="4:4">
+    <row r="1672" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1672"/>
     </row>
-    <row r="1673" spans="4:4">
+    <row r="1673" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1673"/>
     </row>
-    <row r="1674" spans="4:4">
+    <row r="1674" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1674"/>
     </row>
-    <row r="1675" spans="4:4">
+    <row r="1675" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1675"/>
     </row>
-    <row r="1676" spans="4:4">
+    <row r="1676" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1676"/>
     </row>
-    <row r="1677" spans="4:4">
+    <row r="1677" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1677"/>
     </row>
-    <row r="1678" spans="4:4">
+    <row r="1678" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1678"/>
     </row>
-    <row r="1679" spans="4:4">
+    <row r="1679" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1679"/>
     </row>
-    <row r="1680" spans="4:4">
+    <row r="1680" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1680"/>
     </row>
-    <row r="1681" spans="4:4">
+    <row r="1681" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1681"/>
     </row>
-    <row r="1682" spans="4:4">
+    <row r="1682" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1682"/>
     </row>
-    <row r="1683" spans="4:4">
+    <row r="1683" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1683"/>
     </row>
-    <row r="1684" spans="4:4">
+    <row r="1684" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1684"/>
     </row>
-    <row r="1685" spans="4:4">
+    <row r="1685" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1685"/>
     </row>
-    <row r="1686" spans="4:4">
+    <row r="1686" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1686"/>
     </row>
-    <row r="1687" spans="4:4">
+    <row r="1687" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1687"/>
     </row>
-    <row r="1688" spans="4:4">
+    <row r="1688" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1688"/>
     </row>
-    <row r="1689" spans="4:4">
+    <row r="1689" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1689"/>
     </row>
-    <row r="1690" spans="4:4">
+    <row r="1690" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1690"/>
     </row>
-    <row r="1691" spans="4:4">
+    <row r="1691" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1691"/>
     </row>
-    <row r="1692" spans="4:4">
+    <row r="1692" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1692"/>
     </row>
-    <row r="1693" spans="4:4">
+    <row r="1693" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1693"/>
     </row>
-    <row r="1694" spans="4:4">
+    <row r="1694" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1694"/>
     </row>
-    <row r="1695" spans="4:4">
+    <row r="1695" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1695"/>
     </row>
-    <row r="1696" spans="4:4">
+    <row r="1696" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1696"/>
     </row>
-    <row r="1697" spans="4:4">
+    <row r="1697" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1697"/>
     </row>
-    <row r="1698" spans="4:4">
+    <row r="1698" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1698"/>
     </row>
-    <row r="1699" spans="4:4">
+    <row r="1699" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1699"/>
     </row>
-    <row r="1700" spans="4:4">
+    <row r="1700" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1700"/>
     </row>
-    <row r="1701" spans="4:4">
+    <row r="1701" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1701"/>
     </row>
-    <row r="1702" spans="4:4">
+    <row r="1702" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1702"/>
     </row>
-    <row r="1703" spans="4:4">
+    <row r="1703" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1703"/>
     </row>
-    <row r="1704" spans="4:4">
+    <row r="1704" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1704"/>
     </row>
-    <row r="1705" spans="4:4">
+    <row r="1705" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1705"/>
     </row>
-    <row r="1706" spans="4:4">
+    <row r="1706" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1706"/>
     </row>
-    <row r="1707" spans="4:4">
+    <row r="1707" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1707"/>
     </row>
-    <row r="1708" spans="4:4">
+    <row r="1708" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1708"/>
     </row>
-    <row r="1709" spans="4:4">
+    <row r="1709" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1709"/>
     </row>
-    <row r="1710" spans="4:4">
+    <row r="1710" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1710"/>
     </row>
-    <row r="1711" spans="4:4">
+    <row r="1711" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1711"/>
     </row>
-    <row r="1712" spans="4:4">
+    <row r="1712" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1712"/>
     </row>
-    <row r="1713" spans="4:4">
+    <row r="1713" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1713"/>
     </row>
-    <row r="1714" spans="4:4">
+    <row r="1714" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1714"/>
     </row>
-    <row r="1715" spans="4:4">
+    <row r="1715" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1715"/>
     </row>
-    <row r="1716" spans="4:4">
+    <row r="1716" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1716"/>
     </row>
-    <row r="1717" spans="4:4">
+    <row r="1717" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1717"/>
     </row>
-    <row r="1718" spans="4:4">
+    <row r="1718" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1718"/>
     </row>
-    <row r="1719" spans="4:4">
+    <row r="1719" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1719"/>
     </row>
-    <row r="1720" spans="4:4">
+    <row r="1720" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1720"/>
     </row>
-    <row r="1721" spans="4:4">
+    <row r="1721" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1721"/>
     </row>
-    <row r="1722" spans="4:4">
+    <row r="1722" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1722"/>
     </row>
-    <row r="1723" spans="4:4">
+    <row r="1723" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1723"/>
     </row>
-    <row r="1724" spans="4:4">
+    <row r="1724" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1724"/>
     </row>
-    <row r="1725" spans="4:4">
+    <row r="1725" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1725"/>
     </row>
-    <row r="1726" spans="4:4">
+    <row r="1726" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1726"/>
     </row>
-    <row r="1727" spans="4:4">
+    <row r="1727" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1727"/>
     </row>
-    <row r="1728" spans="4:4">
+    <row r="1728" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1728"/>
     </row>
-    <row r="1729" spans="4:4">
+    <row r="1729" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1729"/>
     </row>
-    <row r="1730" spans="4:4">
+    <row r="1730" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1730"/>
     </row>
-    <row r="1731" spans="4:4">
+    <row r="1731" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1731"/>
     </row>
-    <row r="1732" spans="4:4">
+    <row r="1732" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1732"/>
     </row>
-    <row r="1733" spans="4:4">
+    <row r="1733" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1733"/>
     </row>
-    <row r="1734" spans="4:4">
+    <row r="1734" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1734"/>
     </row>
-    <row r="1735" spans="4:4">
+    <row r="1735" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1735"/>
     </row>
-    <row r="1736" spans="4:4">
+    <row r="1736" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1736"/>
     </row>
-    <row r="1737" spans="4:4">
+    <row r="1737" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1737"/>
     </row>
-    <row r="1738" spans="4:4">
+    <row r="1738" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1738"/>
     </row>
-    <row r="1739" spans="4:4">
+    <row r="1739" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1739"/>
     </row>
-    <row r="1740" spans="4:4">
+    <row r="1740" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1740"/>
     </row>
-    <row r="1741" spans="4:4">
+    <row r="1741" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1741"/>
     </row>
-    <row r="1742" spans="4:4">
+    <row r="1742" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1742"/>
     </row>
-    <row r="1743" spans="4:4">
+    <row r="1743" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1743"/>
     </row>
-    <row r="1744" spans="4:4">
+    <row r="1744" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1744"/>
     </row>
-    <row r="1745" spans="4:4">
+    <row r="1745" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1745"/>
     </row>
-    <row r="1746" spans="4:4">
+    <row r="1746" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1746"/>
     </row>
-    <row r="1747" spans="4:4">
+    <row r="1747" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1747"/>
     </row>
-    <row r="1748" spans="4:4">
+    <row r="1748" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1748"/>
     </row>
-    <row r="1749" spans="4:4">
+    <row r="1749" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1749"/>
     </row>
-    <row r="1750" spans="4:4">
+    <row r="1750" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1750"/>
     </row>
-    <row r="1751" spans="4:4">
+    <row r="1751" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1751"/>
     </row>
-    <row r="1752" spans="4:4">
+    <row r="1752" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1752"/>
     </row>
-    <row r="1753" spans="4:4">
+    <row r="1753" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1753"/>
     </row>
-    <row r="1754" spans="4:4">
+    <row r="1754" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1754"/>
     </row>
-    <row r="1755" spans="4:4">
+    <row r="1755" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1755"/>
     </row>
-    <row r="1756" spans="4:4">
+    <row r="1756" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1756"/>
     </row>
-    <row r="1757" spans="4:4">
+    <row r="1757" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1757"/>
     </row>
-    <row r="1758" spans="4:4">
+    <row r="1758" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1758"/>
     </row>
-    <row r="1759" spans="4:4">
+    <row r="1759" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1759"/>
     </row>
-    <row r="1760" spans="4:4">
+    <row r="1760" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1760"/>
     </row>
-    <row r="1761" spans="4:4">
+    <row r="1761" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1761"/>
     </row>
-    <row r="1762" spans="4:4">
+    <row r="1762" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1762"/>
     </row>
-    <row r="1763" spans="4:4">
+    <row r="1763" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1763"/>
     </row>
-    <row r="1764" spans="4:4">
+    <row r="1764" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1764"/>
     </row>
-    <row r="1765" spans="4:4">
+    <row r="1765" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1765"/>
     </row>
-    <row r="1766" spans="4:4">
+    <row r="1766" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1766"/>
     </row>
-    <row r="1767" spans="4:4">
+    <row r="1767" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1767"/>
     </row>
-    <row r="1768" spans="4:4">
+    <row r="1768" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1768"/>
     </row>
-    <row r="1769" spans="4:4">
+    <row r="1769" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1769"/>
     </row>
-    <row r="1770" spans="4:4">
+    <row r="1770" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1770"/>
     </row>
-    <row r="1771" spans="4:4">
+    <row r="1771" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1771"/>
     </row>
-    <row r="1772" spans="4:4">
+    <row r="1772" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1772"/>
     </row>
+    <row r="1773" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1773"/>
+    </row>
+    <row r="1774" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1774"/>
+    </row>
+    <row r="1775" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1775"/>
+    </row>
+    <row r="1776" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1776"/>
+    </row>
+    <row r="1777" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1777"/>
+    </row>
+    <row r="1778" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1778"/>
+    </row>
+    <row r="1779" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1779"/>
+    </row>
+    <row r="1780" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1780"/>
+    </row>
+    <row r="1781" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1781"/>
+    </row>
+    <row r="1782" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1782"/>
+    </row>
+    <row r="1783" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1783"/>
+    </row>
+    <row r="1784" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1784"/>
+    </row>
+    <row r="1785" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1785"/>
+    </row>
+    <row r="1786" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1786"/>
+    </row>
+    <row r="1787" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1787"/>
+    </row>
+    <row r="1788" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1788"/>
+    </row>
+    <row r="1789" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1789"/>
+    </row>
+    <row r="1790" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1790"/>
+    </row>
+    <row r="1791" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1791"/>
+    </row>
+    <row r="1792" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1792"/>
+    </row>
+    <row r="1793" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1793"/>
+    </row>
+    <row r="1794" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1794"/>
+    </row>
+    <row r="1795" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1795"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D104" xr:uid="{AF393D00-D786-4826-A0C4-1A75D9C3171B}"/>
+  <autoFilter ref="A1:D127" xr:uid="{AF393D00-D786-4826-A0C4-1A75D9C3171B}"/>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="C7:C37 C105 C44:C99 C102 B4:B190" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" sqref="C7:C37 C128 C125 B4:B85 C44:C85 C109:C122 B87:B213" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"integer,decimal,text,binary,locale,boolean,datetime,date"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14737,12 +15178,12 @@
       <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>235</v>
       </c>
@@ -14756,7 +15197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -14770,7 +15211,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -14784,7 +15225,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -14798,7 +15239,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
@@ -14812,7 +15253,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -14826,7 +15267,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -14840,7 +15281,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -14854,7 +15295,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -14868,7 +15309,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -14882,7 +15323,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
@@ -14896,7 +15337,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
@@ -14910,7 +15351,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -14924,7 +15365,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
@@ -14938,7 +15379,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
@@ -14952,7 +15393,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
@@ -14966,7 +15407,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -14980,7 +15421,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -14994,7 +15435,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -15008,7 +15449,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>11</v>
       </c>
@@ -15022,7 +15463,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
@@ -15036,7 +15477,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>11</v>
       </c>
@@ -15050,7 +15491,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
@@ -15064,7 +15505,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>11</v>
       </c>
@@ -15078,7 +15519,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>11</v>
       </c>
@@ -15092,7 +15533,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>11</v>
       </c>
@@ -15106,7 +15547,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>11</v>
       </c>
@@ -15120,7 +15561,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>11</v>
       </c>
@@ -15134,7 +15575,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>11</v>
       </c>
@@ -15148,7 +15589,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>11</v>
       </c>
@@ -15162,7 +15603,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
@@ -15176,7 +15617,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>11</v>
       </c>
@@ -15190,7 +15631,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>11</v>
       </c>
@@ -15204,7 +15645,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>11</v>
       </c>
@@ -15218,7 +15659,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
@@ -15232,7 +15673,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>11</v>
       </c>
@@ -15246,7 +15687,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>11</v>
       </c>
@@ -15260,7 +15701,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>11</v>
       </c>
@@ -15274,7 +15715,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>11</v>
       </c>
@@ -15288,7 +15729,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>11</v>
       </c>
@@ -15302,7 +15743,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>11</v>
       </c>
@@ -15316,7 +15757,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>15</v>
       </c>
@@ -15330,7 +15771,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>15</v>
       </c>
@@ -15344,7 +15785,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>15</v>
       </c>
@@ -15358,7 +15799,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>15</v>
       </c>
@@ -15372,7 +15813,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>15</v>
       </c>
@@ -15386,7 +15827,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>15</v>
       </c>
@@ -15400,7 +15841,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -15414,7 +15855,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>15</v>
       </c>
@@ -15428,7 +15869,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>15</v>
       </c>
@@ -15442,7 +15883,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>15</v>
       </c>
@@ -15456,7 +15897,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>15</v>
       </c>
@@ -15470,7 +15911,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>15</v>
       </c>
@@ -15484,7 +15925,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>15</v>
       </c>
@@ -15498,7 +15939,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>15</v>
       </c>
@@ -15512,7 +15953,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -15526,7 +15967,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>15</v>
       </c>
@@ -15540,7 +15981,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>15</v>
       </c>
@@ -15554,7 +15995,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>15</v>
       </c>
@@ -15568,7 +16009,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>15</v>
       </c>
@@ -15582,7 +16023,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>15</v>
       </c>
@@ -15596,7 +16037,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>15</v>
       </c>
@@ -15610,7 +16051,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>15</v>
       </c>
@@ -15624,7 +16065,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -15638,7 +16079,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>15</v>
       </c>
@@ -15652,7 +16093,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>15</v>
       </c>
@@ -15666,7 +16107,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>302</v>
       </c>
@@ -15680,7 +16121,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>302</v>
       </c>
@@ -15694,7 +16135,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>302</v>
       </c>
@@ -15708,7 +16149,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>165</v>
       </c>
@@ -15722,7 +16163,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>165</v>
       </c>
@@ -15736,7 +16177,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>165</v>
       </c>
@@ -15750,7 +16191,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>165</v>
       </c>
@@ -15764,7 +16205,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>165</v>
       </c>
@@ -15778,7 +16219,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>183</v>
       </c>
@@ -15792,7 +16233,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>183</v>
       </c>
@@ -15806,7 +16247,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>183</v>
       </c>
@@ -15820,7 +16261,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>183</v>
       </c>
@@ -15834,7 +16275,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>183</v>
       </c>
@@ -15848,7 +16289,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>183</v>
       </c>
@@ -15862,7 +16303,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>185</v>
       </c>
@@ -15876,7 +16317,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>185</v>
       </c>
@@ -15890,7 +16331,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>185</v>
       </c>
@@ -15904,7 +16345,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>185</v>
       </c>
@@ -15918,7 +16359,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>185</v>
       </c>
@@ -15932,7 +16373,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>185</v>
       </c>
@@ -15946,7 +16387,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>81</v>
       </c>
@@ -15960,7 +16401,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>83</v>
       </c>
@@ -15974,7 +16415,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>81</v>
       </c>
@@ -15988,7 +16429,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>83</v>
       </c>
@@ -16002,250 +16443,250 @@
         <v>314</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" s="1"/>
     </row>
   </sheetData>

--- a/dictionaries/urban_ath/1_3/1_3_yearly_rep.xlsx
+++ b/dictionaries/urban_ath/1_3/1_3_yearly_rep.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\ATHLETE\DOCUMENTS\dictionaries\jose_dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\git_hub\dsUploadTest\20240523_uploadurban\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA1DFD-9D2B-4E74-AF1B-1F0D72003E73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAC9BD1-1055-4F01-8CF3-747289EEEFF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$D$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$D$126</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="360">
   <si>
     <t>name</t>
   </si>
@@ -1991,9 +1991,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMH1795"/>
+  <dimension ref="A1:AMH1794"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9330,21 +9332,21 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>189</v>
-      </c>
-      <c r="B86" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" t="s">
         <v>20</v>
       </c>
       <c r="C86" t="s">
         <v>114</v>
       </c>
       <c r="D86" t="s">
-        <v>190</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -9353,12 +9355,12 @@
         <v>114</v>
       </c>
       <c r="D87" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -9367,12 +9369,12 @@
         <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -9381,12 +9383,12 @@
         <v>114</v>
       </c>
       <c r="D89" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -9395,12 +9397,12 @@
         <v>114</v>
       </c>
       <c r="D90" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
@@ -9409,12 +9411,12 @@
         <v>114</v>
       </c>
       <c r="D91" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
@@ -9423,12 +9425,12 @@
         <v>114</v>
       </c>
       <c r="D92" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
@@ -9437,12 +9439,12 @@
         <v>114</v>
       </c>
       <c r="D93" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
@@ -9451,12 +9453,12 @@
         <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -9465,12 +9467,12 @@
         <v>114</v>
       </c>
       <c r="D95" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -9479,12 +9481,12 @@
         <v>114</v>
       </c>
       <c r="D96" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -9493,12 +9495,12 @@
         <v>114</v>
       </c>
       <c r="D97" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
@@ -9507,12 +9509,12 @@
         <v>114</v>
       </c>
       <c r="D98" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -9521,12 +9523,12 @@
         <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
@@ -9535,12 +9537,12 @@
         <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
@@ -9549,12 +9551,12 @@
         <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
@@ -9563,12 +9565,12 @@
         <v>114</v>
       </c>
       <c r="D102" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
@@ -9577,12 +9579,12 @@
         <v>114</v>
       </c>
       <c r="D103" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
@@ -9591,12 +9593,12 @@
         <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
@@ -9605,12 +9607,12 @@
         <v>114</v>
       </c>
       <c r="D105" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
@@ -9619,12 +9621,12 @@
         <v>114</v>
       </c>
       <c r="D106" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
@@ -9633,26 +9635,26 @@
         <v>114</v>
       </c>
       <c r="D107" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>337</v>
+        <v>191</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
       </c>
-      <c r="C108" t="s">
-        <v>114</v>
+      <c r="C108" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="D108" t="s">
-        <v>359</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -9661,12 +9663,12 @@
         <v>192</v>
       </c>
       <c r="D109" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
@@ -9675,26 +9677,26 @@
         <v>192</v>
       </c>
       <c r="D110" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>192</v>
+      <c r="C111" t="s">
+        <v>99</v>
       </c>
       <c r="D111" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
@@ -9703,12 +9705,12 @@
         <v>99</v>
       </c>
       <c r="D112" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
@@ -9717,26 +9719,26 @@
         <v>99</v>
       </c>
       <c r="D113" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
       </c>
-      <c r="C114" t="s">
-        <v>99</v>
+      <c r="C114" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="D114" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
@@ -9745,12 +9747,12 @@
         <v>192</v>
       </c>
       <c r="D115" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
@@ -9759,82 +9761,82 @@
         <v>192</v>
       </c>
       <c r="D116" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>192</v>
+      <c r="C117" t="s">
+        <v>99</v>
       </c>
       <c r="D117" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
       </c>
-      <c r="C118" t="s">
-        <v>99</v>
+      <c r="C118" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="D118" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>213</v>
+      <c r="C119" t="s">
+        <v>216</v>
       </c>
       <c r="D119" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D120" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
       </c>
-      <c r="C121" t="s">
-        <v>219</v>
+      <c r="C121" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D121" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B122" t="s">
         <v>20</v>
@@ -9843,12 +9845,12 @@
         <v>222</v>
       </c>
       <c r="D122" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
@@ -9857,69 +9859,61 @@
         <v>222</v>
       </c>
       <c r="D123" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="D124" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>192</v>
+      <c r="C125" t="s">
+        <v>72</v>
       </c>
       <c r="D125" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B126" t="s">
         <v>20</v>
       </c>
-      <c r="C126" t="s">
-        <v>72</v>
+      <c r="C126" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="D126" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>232</v>
-      </c>
-      <c r="B127" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D127" t="s">
-        <v>234</v>
-      </c>
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127" s="5"/>
+      <c r="D127"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
-      <c r="C128" s="5"/>
+      <c r="C128"/>
       <c r="D128"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -10385,9 +10379,6 @@
       <c r="D205"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206"/>
-      <c r="B206"/>
-      <c r="C206"/>
       <c r="D206"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -15154,13 +15145,10 @@
     <row r="1794" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1794"/>
     </row>
-    <row r="1795" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1795"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D127" xr:uid="{AF393D00-D786-4826-A0C4-1A75D9C3171B}"/>
+  <autoFilter ref="A1:D126" xr:uid="{AF393D00-D786-4826-A0C4-1A75D9C3171B}"/>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="C7:C37 C128 C125 B4:B85 C44:C85 C109:C122 B87:B213" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" sqref="C7:C37 C127 C124 B4:B85 C44:C85 C108:C121 B86:B212" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"integer,decimal,text,binary,locale,boolean,datetime,date"</formula1>
       <formula2>0</formula2>
     </dataValidation>
